--- a/deuChatbot/research_result/version_1(2500_200).xlsx
+++ b/deuChatbot/research_result/version_1(2500_200).xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +419,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -13668,7 +13674,7179 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, "사고의 전환"의 배점이 잘못 기재되어 있습니다. 원본에서는 "사고의 전환"의 배점이 700점 (30%)이 아니라 700점 (70%)으로 되어 있습니다. 이로 인해 일부 정보가 부정확하게 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 배점 부분에서 불일치가 발생하여 일관성이 떨어집니다. 또한, "주의사항" 부분은 원본에 포함되어 있지 않은 정보입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 실기시험에 대한 정보와 관련된 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "주의사항" 부분이 원본에 없기 때문에 전체적인 일관성에 영향을 미칩니다.
+6. Accuracy Score (1-5): 4
+   - 대부분의 정보는 정확하지만, 배점에 대한 오류가 있어 정확성 점수가 다소 낮아졌습니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 유지하고 있으나, 배점의 오류와 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하며, 원본의 맥락을 잘 반영하고 있습니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8743230500593177</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 시각디자인, 산업디자인, 공예디자인 중 선택 가능합니다.
+2. **종목별 배점**:
+   - 기초디자인: 700점 (70%)
+   - 사고의 전환: 700점 (30%)
+3. **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+4. **실기주제**:
+   - 기초디자인: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 작업을 진행합니다.
+     예시 주제들: 잠자리와 저울, 콜라병과 계절 등.
+   - 사고의 전환: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 작업을 진행합니다.
+5. **화지크기**: 켄트지 3절 또는 2절 (종류에 따라 다름)
+6. **시간**: 5시간
+7. **주의사항**:
+   - 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크, 축구화 등 특수화는 불가능하며 신발바닥에 이물질이 가칠 수 없도록 해야 합니다.
+8. **기타**: 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상을 변경해서도 안 됩니다.
+이러한 절차를 통해 지원자의 디자인 기초 능력과 창의력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기종목을 "시각디자인, 산업디자인, 공예디자인 중 택1"으로 잘못 기재하였으며, 원본 텍스트의 "기초디자인"과 "사고의 전환"을 누락했습니다. 또한, 실기주제와 관련된 주제A와 주제B의 목록이 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 실기종목과 주제에 대한 정보가 상충합니다. 원본의 두 가지 실기종목을 모두 포함하지 않고, 잘못된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본의 내용과 일치하지 않기 때문에 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 원본 텍스트와의 내용 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 중요한 정보가 누락되어 있습니다. 실기종목과 주제에 대한 정확한 정보가 제공되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기고사에 대한 정보를 제공하고 있으나, 원본의 맥락과는 다소 차이가 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8482233774371658</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **실기종목**: 시각디자인, 산업디자인, 공예디자인 중 택1
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+이 정보는 디자인조형학과의 실기고사에 대한 기본적인 준비를 위한 지침입니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 대회 목록을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9093080729855809</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international competitions (국가대표팀, 주니어팀 소속으로 출전한 대회)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회의 목록은 경기지도학과에서 인정하는 대회들의 종류와 규모를 보여줍니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 목록이 정확하게 나열되어 있으며, 추첨 방식에 대한 설명도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제와 추첨 방식에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 주제와 추첨 방식이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7965950084125357</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 제공된 주제 목록은 다음과 같습니다:
+- 주제A:
+  - 잠자리
+  - 무궁화
+  - 피망
+  - 고양이
+  - 양파
+  - 달팽이
+  - 오렌지
+- 주제B: 
+  - 악보
+  - 줄자
+  - 스카치테이프
+  - 자물쇠
+  - 반코팅장갑
+  - 저울
+  - 얼음
+당일에는 이 중에서 각각 하나를 추첨하여 연결된 주제를 그려야 합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답에서는 출결 점수가 고려된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 출결 점수가 반영되지 않는다고 명시한 반면, 생성된 응답은 출결 점수가 고려된다고 주장하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문은 출결 점수의 반영 여부에 대한 질문에 대한 답변인데, 생성된 응답은 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다. 그러나 문법적 오류는 크지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 연결이 없기 때문에 논리적인 흐름이 부족합니다. 원문과의 관계가 전혀 없어서 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있습니다. 출결 점수가 반영되지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없고, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 전혀 맞지 않으며, 문맥에 적합하지 않습니다. 원문이 출결 점수의 반영 여부에 대한 질문에 대한 답변인 반면, 생성된 응답은 다른 주제를 다루고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원문과의 관련성이 없기 때문에 전체적인 이해가 어렵습니다. 내용이 혼란스러워서 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.3690710318858788</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>东义大学的学生学科型录取中确实考虑了出勤记录。根据提供的信息，学生学科型（平生学习者类型）的评价领域包括：
+- 共同体能力：120分
+- 学业能力：240分
+- 专业适应性：240分
+在这些评价领域中，虽然没有直接提到出勤记录，但在"学业能力"（学業역량）部分的评分标准中提到了：
+``` 
+評価要素 / 合作能力 / 学业态度 / 学业成就 / 热情 /
+評価基準 / 为团队目标的合作性态度、分享和关怀行为（学校暴力记录在学生手册中有记载的情况下，根据学校暴力处理内容的程度，在共同体能力领域进行扣分或不合格处理）/
+```
+虽然这里没有明确提到出勤记录，但可以推断出勤情况可能间接通过"学业态度"（학업태도）中的合作性和关怀行为来反映。此外，在其他类型的录取方式中，确实有提及出勤记录的评分标准。
+因此，尽管不是直接列出，东义大学的学生学科型录取在一定程度上考虑了学生的出勤记录。</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 17명을 정확하게 언급하고 있으며, 원본 텍스트의 사실을 완전히 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6878686452944809</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+참조된 정보:
+- [표 속성] 단과대학 / 계열 / 모집단위 / 모집인원
+- [표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치하는 정보를 제공합니다. 그러나 "교직"이라는 추가 정보는 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "교직"이라는 정보가 추가되어 있어 일관성이 떨어집니다. 원문에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 모집 인원과 관련된 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "교직"이라는 단어가 문맥상 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 추가 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원에 대한 정보는 정확하지만, 원문에 없는 "교직"이라는 정보가 포함되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, "교직"이라는 정보가 문맥에 맞지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 추가 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.583190441457204</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.6981222973612996</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과 나군 일반학생전형의 정원 내 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있지만, "韩语"와 "解释" 부분은 원본 텍스트와 관련이 없는 추가 정보입니다. 따라서 일부 정확성은 유지되지만, 전체적으로는 원본의 내용과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 점수 정보를 포함하고 있지만, 추가된 번역 및 설명 부분이 원본의 일관성을 해칩니다. 원본의 내용과는 다소 다른 맥락을 제공하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 영어 등급에 따른 점수를 명확하게 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 점수 정보를 잘 정리하고 있지만, 번역 및 설명 부분이 추가되어 전체적인 논리적 흐름이 약간 방해받고 있습니다. 그럼에도 불구하고 기본적인 구조는 잘 유지되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 점수 정보는 정확하지만, 추가된 설명이 원본의 정확성을 약간 해치고 있습니다. 원본의 내용과는 다소 다른 맥락을 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 문제가 있습니다. 전반적으로는 양호한 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답의 일부 내용은 원본 텍스트와 관련이 없으며, 번역 및 설명 부분이 원본의 의미와 맥락을 벗어나 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 번역 및 설명이 혼란을 줄 수 있습니다. 기본적인 정보는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6844815802897846</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是翻译结果：
+韩语：
+수능 영어 등급에 따른 점수는 다음과 같습니다.
+| 등급 | 점수 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+解释：
+这张表列出了韩国有考试英语（SSAT）成绩等级与对应的分数。从A级到F级，分数依次递减。</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "일반고 또는 기타 학교를 졸업해야 한다"는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 예술고 학생의 지원 자격에 대해 설명하고 있습니다. 다만, 추가된 내용이 원문에 없는 정보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 자격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "[표 추가내용]에 따르면:" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 내용이 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보의 정확성을 잘 반영하고 있지만, 추가된 정보가 원문에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 내용이 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문구가 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7993173045658075</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+[표 추가내용]에 따르면:
+"농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 농어촌학생전형으로 지원하기 위해서는 일반고 또는 기타 학교를 졸업해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 4등급의 기록을 258cm 이상으로 잘못 제시하고 있으며, 배점도 175점으로 잘못 기재되어 있습니다. 원본 텍스트의 기록 범위(218~221 cm)와 배점(275점)과는 전혀 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점 모두 원본과 일치하지 않으며, Z-런에 대한 정보는 원본 텍스트와 관련이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 레저스포츠학과 여자 제자리 멀리뛰기와 관련된 정보를 제공하지만, 잘못된 정보와 Z-런에 대한 불필요한 정보가 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, Z-런에 대한 언급이 포함되어 있어 주제와의 일관성이 떨어집니다. 따라서 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 기록과 배점 모두 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 레저스포츠학과 여자 제자리 멀리뛰기와 관련된 내용을 다루고 있지만, 잘못된 정보와 불필요한 추가 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조로 작성되었으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8261144045874536</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 258cm 이상이며, 이에 해당하는 배점은 175점입니다.
+Z-런의 경우, 4등급의 기록은 16.00~16.19 사이이며, 이에 해당하는 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.3741842045915285</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 관련된 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 정보를 추가하여 더욱 풍부한 내용을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8428360260402131</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다:
+- 물리치료학과는 공과대학의 모집단위 중 하나입니다.
+- 해당 학과의 모집인원은 4명으로 나타나 있습니다. 
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가 정보도 관련성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4959603110946277</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024년 1월 17일(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)의 실기고사
+- **추가 정보**: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+이 일정은 전형일정 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 일치하며, 응용화학과의 수능 최저기준이 없음을 명확히 전달하고 있습니다. 추가적인 정보도 제공되지만, 이는 원문과 일치하는 내용입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 일관되게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 수능 최저기준에 대한 명확한 답변을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반한 내용을 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.5003982410431943</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 
+표 "전형요소 반영비율"을 보면, 응용화학과는 다음과 같이 분류되어 있습니다:
+- 모집단위: 응용화학과 (다)
+- 전형명: 다군 수능(일반학생전형) 
+- 수능최저기준: 없음
+이는 응용화학과에서 수능 최저기준이 설정되지 않았음을 의미합니다. 
+따라서, 2024학년도 동의대학교 응용화학과의 수능 최저기준은 없습니다.
+만약 특정한 수능 점수 기준을 알고 싶다면, 대학 입학처나 공식 홈페이지를 통해 확인하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신설된 학과 목록에서 '부동산자산경역학부'와 '간호학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 학과와 일치하지 않습니다. 또한 '미래융합대학'이라는 학과는 원본에 언급되지 않았습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 신설된 학과의 목록에서 추가적인 학과가 포함되어 있어 일관성이 부족합니다. 원본 텍스트에 없는 정보가 포함되어 있어 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 학과에 대한 정보도 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과를 나열하고 있지만, 각 학과에 대한 설명이 일관되게 연결되지 않아 논리적 흐름이 다소 부족합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 신설 학과와 일치하지 않는 정보를 포함하고 있어 정확성 점수가 낮습니다. 특히, 원본에 없는 학과가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완전히 적절하지는 않습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 이해도 저하가 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7000097324019473</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 분야: 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+2. 부동산자산경역학부 (신설) 
+   - 분야: 부동산투자학, 부동산개발경영학
+3. 상경대학 - 스마트항만물류학과 (신설)
+4. 상경대학 - 창업투자경영학과 (신설)
+5. 의료보건생활대학 - 간호학과 (교직) - 간호교육인증
+   - 이 학과는 이미 운영되고 있었지만, 교직 인증을 받았습니다.
+6. 공과대학 - 건축학과(5년제) 
+7. 예술디자인체육대학 - 경기지도학과 (신설)
+위와 같은 신설 학과들이 2024학년도 동의대학교에서 운영됩니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 서류와 면접의 비율을 올바르게 제시하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전형요소 반영비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8373772490213734</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가 : 70%
+- 면접 평가 : 30%
+이 비율은 성인학습자전형 모두에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학이 언급되었으나, 생성된 응답에서는 한의예과만을 언급하고 있습니다. 이는 사실과 다르며, 가산점이 적용되는 모집단위에 대한 정보가 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서 언급된 모집단위와는 다른 학과를 언급하고 있으며, 이는 일관성을 결여한 것입니다. 따라서 응답의 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원문에서 언급된 모집단위와 관련이 없기 때문에 관련성 점수는 중간 정도입니다. 원문과의 직접적인 연관성이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다. 전반적으로 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 한의예과만을 언급하고 있어 정확성 점수가 낮습니다. 원문에서 언급된 다른 모집단위에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원문과의 불일치로 인해 의미적으로 적절하지 않습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.715777748776995</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- "수능 반영영역 및 가산점" 표에서 확인할 수 있습니다.
+- 한의예과 수학(미적분/기하) 응시자에 대한 가산점 항목이 명시되어 있습니다.
+- 이 가산점은 다른 모집단위나 학과에서는 적용되지 않습니다.
+따라서 동의대학교에서 수능 가산점을 받을 수 있는 학과는 한의예과이며, 해당 과목은 수학(미적분 또는 기하) 응시자에 한해 10%의 표준점수를 추가로 부여받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 포함하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 중요한 사실을 간과하고 있습니다. 또한, 수능 성적 반영 방법에 대한 세부 사항이 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 영역별로 25%씩 반영된다고 설명하고 있어 상충하는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용인 "100% 반영"을 간과하고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관된 구조를 갖추지 못하고 있습니다. 각 항목 간의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 수능 성적 반영 비율에 대한 설명이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 내용을 놓치고 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7076402675790853</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어, 수학, 영어 등급점수와 탐구 영역(사회탐구 또는 과학탐구)의 표준점수가 반영됩니다.
+2. 한의예과의 경우:
+   - 수학(미적분/기하) 응시자는 수학 표준점수에 10% 가산점이 부여됩니다.
+   - 수학(확률과통계) 응시자는 추가 가산점은 없습니다.
+3. 전반적으로 각 영역별로 25%씩 반영되며, 탐구 영역은 사회탐구 또는 과학탐구 중 선택하여 2개 과목을 합산합니다.
+4. 수능 한국사는 반드시 응시해야 합니다.
+이러한 방식으로 가군에서의 수능 성적을 종합적으로 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 모든 정보를 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 실기고사 날짜에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.8006466824016074</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다.
+이 정보는 "전형일정" 섹션에서 확인할 수 있습니다:
+[표 내용]
+```
+&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과 / 2024. 01. 16.(화) /
+```
+따라서 가군의 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 예정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된 모집단위에 포함되어 있지 않으며, 레저스포츠학과와 태권도학과는 원문에 언급되지 않았습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 한의예과와 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 이 두 학과가 제외되지 않았다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 포함하고 있어 전체적으로 관련성이 떨어집니다. 원문에서 제외된 학과에 대한 정확한 정보가 필요합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 영향을 받습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에 명시된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 생성된 응답은 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에서 벗어난 부분이 많아 의미적으로 적절하지 않습니다. 잘못된 정보가 포함되어 있어 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7287101312828799</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 제외된 모집단위는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과입니다.
+이 점을 확인하기 위해 관련 정보를 찾아보았습니다:
+- [표 내용] 섹션에서 나군 수능(일반학생전형) 모집단위 및 모집인원 표에 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 포함되어 있지 않습니다.
+- [표 추가내용] 섹션에서 "수능 반영영역 및 가산점" 표를 보면 한의예과 수학(미적분/기하) 응시자와 한의예과 수학(확률과통계) 응시자의 모집단위에 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 포함되어 있지 않습니다.
+따라서, 2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 모집단위가 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 "2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다."라고 명시하고 있으나, 원문에서는 "수능 최저기준이 적용되지 않습니다."라고 명확히 언급하고 있습니다. 따라서 사실관계가 완전히 반대입니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 원문에서의 주장을 정면으로 반박하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 다군 전형에 대한 추가 정보를 제공하고 있으나, 원문에서의 핵심 주제인 수능 최저기준의 적용 여부와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약간 깨집니다. 그러나 각 문장은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 사실관계, 일관성, 정확성 모두 매우 낮은 점수를 받았기 때문에 전체적인 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7719550760604769</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+다군 수능(일반학생전형)에 대한 주요 내용은 다음과 같습니다:
+1. 모집단위별로 수능 반영 영역 및 비율이 100%입니다.
+2. 동점자 처리 시, 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수가 우선적으로 고려됩니다.
+3. 미응시한 수능 영역은 0점으로 처리됩니다.
+4. 최저합격선에서 동점자가 발생할 경우, 그 인원을 모두 합격시키고 모집인원 초과분은 차차년도 모집에서 감축하여 모집합니다.
+따라서 다군 전형에서도 수능 성적이 중요한 평가 요소로 작용하며, 최저기준이 적용되는 것으로 보입니다. 하지만 정확한 최저기준 점수는 공지된 정보 없이는 알 수 없으므로, 동의대학교 입학 홈페이지를 확인하시거나 관련 안내를 참고하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8719250623621989</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정보를 정확하게 반영하고 있으며, 원서접수 기간도 언급하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 원서접수 마감일과 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8042917174023081</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다. 해당 표에 따르면:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+따라서 정확한 마감 시간은 18시입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 정보가 일부 정확하지 않거나 누락된 부분이 있습니다. 예를 들어, '경기지도학과'와 관련된 정보는 원본 텍스트에 포함되어 있지 않으며, 신설된 전형에 대한 구체적인 내용이 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 언급된 전형 요소와 평가 방식의 변화가 제대로 반영되지 않았고, 새로운 전형에 대한 정보가 추가되어 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 질문에 어느 정도 관련이 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 특히, 신설된 전형에 대한 정보가 원본 텍스트와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 일관성이 떨어집니다. 새로운 전형에 대한 정보가 추가되면서 전체적인 맥락이 흐트러졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 신설된 전형과 관련된 정보는 원본 텍스트에 명시된 내용과 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 어느 정도 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 새로운 전형에 대한 정보가 원본의 주제와 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.727638933714196</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. 학생부종합(성인학습자전형):
+   - 지원자격 변경: "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 수정되었습니다.
+2. 경기지도학과:
+   - 신설되었으며, 실기/실적 위주 전형으로 분류되었습니다.
+   - 모집단위: 경기지도학과
+   - 모집인원: 7명
+3. 조기취업형 계약학과전형 (나군):
+   - 면접평가 방법 변경:
+     * 면접종류가 개별면접에서 개별면접+블라인드 면접으로 변경되었습니다.
+     * 면접시간이 10분 이내에서 10분 이내 + 블라인드 면접 시간 포함으로 변경되었습니다.
+4. 학생부종합(평생학습자전형):
+   - 신설된 모집단위로 추가되었습니다.
+   - 모집단위: 미래융합대학 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 모집인원: 11명
+5. 학생부종합(성인학습자(정원내)전형):
+   - 신설된 모집단위로 추가되었습니다.
+   - 모집단위: 미래융합대학 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 모집인원: 7명
+6. 학생부종합(성인학습자(정원외)전형):
+   - 신설된 모집단위로 추가되었습니다.
+   - 모집단위: 미래융합대학 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 모집인원: 23명
+7. 학생부종합(재직자전형):
+   - 신설된 모집단위로 추가되었습니다.
+   - 모집단위: 미래융합대학 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 모집인원: 7명
+이러한 변화들은 전형 요소의 구조나 평가 방식, 지원 자격 등에서 일정 부분 변경되었음을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 각 모집단위의 실기 비중에 대한 추가 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 일치합니다. 추가된 세부사항도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 전달하고 있습니다. 추가된 세부사항도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7482497783170149</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 각 모집단위의 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과: 70% (실기고사 성적이 70%, 서류가 30%)
+- 디자인조형학과, 체육학과, 경기지도학과: 70% (서류가 30%)
+따라서, 가군 실기/실적 전형에서 실기의 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8469346436679881</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 "라이프융합학부"의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 동의대학교 2024학년도에 신설된 라이프융합학부는 위 세 가지 전공을 개설하였습니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 학과와 일치하지 않습니다. 원본 텍스트에는 '체육학과'와 '레저스포츠학과'가 포함되어 있지만, 생성된 응답에서는 '태권도학과'가 추가되어 있으며, '체육학과'는 누락되었습니다. 또한, 실기고사에 대한 세부사항도 원본 텍스트에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 서로 다르며, 이는 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로는 적절하지 않습니다. 실기고사에 참여해야 하는 학과에 대한 정보는 제공되지만, 잘못된 학과가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 잘못된 학과가 포함되어 있으며, 원본 텍스트의 정보를 정확하게 반영하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 모두 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6939903718460301</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+   - 제자리 멀리뛰기 (350점)
+   - Z-런 (350점)
+2. 태권도학과
+따라서, 가군에서 실기고사를 진행하는 학과는 총 2개입니다: 레저스포츠학과와 태권도학과입니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 정확하게 나열하고 있으며, 추가적으로 각 학과에 대한 전형명도 설명하고 있습니다. 그러나 원본 텍스트에 명시된 전형명에 대한 정보는 포함되어 있지 않아 완전한 정확성은 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 전형명에 대한 정보가 원본 텍스트에 명시되어 있지 않기 때문에 완전한 일관성은 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기/실적 위주 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 전형명에 대한 정보가 원본 텍스트에 명시되어 있지 않아 완전한 정확성은 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보의 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7501198558694137</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과 
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이들 학과 중에서 지원하려는 학과에 따라 해당하는 전형명을 확인해야 합니다.
+- 레저스포츠학과, 태권도학과: "실기/실적(일반학생전형)"
+- 디자인조형학과, 체육학과: "실기/실적(일반학생전형)" 또는 "실기/실적(경기실적우수자전형)"
+- 경기지도학과: "실기/실적(경기실적우수자전형)"
+따라서 지원하려는 학과와 전형명을 정확히 확인하시고, 해당하는 전형에 맞게 지원서를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "미래융합대학"이라는 표현은 원문에 명시되어 있지 않으며, 이는 약간의 부정확성을 초래합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "미래융합대학"이라는 새로운 명칭이 추가되어 일관성이 떨어집니다. 원문에서는 "라이프융합학부"만 언급되었기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공 목록을 그대로 포함하고 있으며, 관련된 내용을 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중국어 문장이 포함되어 있어 한국어 독자에게는 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록을 잘 나열하고 있으며, 전체적으로 논리적인 흐름을 유지하고 있습니다. 그러나 중국어 문장이 추가되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공에 대한 정보는 정확하지만, "미래융합대학"이라는 표현이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미를 잘 전달하고 있지만, 중국어 문장이 포함되어 있어 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 중국어 문장이 포함되어 있어 일부 독자에게는 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7983721333606422</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的创业、美容和生活方式管理等方面的人才。</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 없다고 잘못된 정보를 제공하고 있습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있습니다. 따라서, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서는 지원 가능성을 언급하고 있지만, 생성된 응답에서는 지원 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 연결되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 맥락이 왜곡되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 사실을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 완전히 왜곡하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.7144926072123958</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원할 수 없습니다.
+참조되는 정보는 다음과 같습니다:
+- **표 제목: 고교유형별 지원자격**
+  - **나군 / 수능 (일반학생전형):** 
+    ``` 
+    특수목적고 { 과학고, 국제고, 외국어고 / 예술고, 체육고 } : 지원 불가능
+    ```
+따라서, 특수목적고등학교 학생은 동의대학교 일반학생전형에 지원할 수 없습니다. 다른 전형을 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않고, 여러 전형에 대한 정보로 혼란을 주고 있습니다. 원문에서 명시된 중어중국학과와 신소재공학과에 대한 언급이 없고, 모집 인원에 대한 정보도 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 특정 학과에 대한 정보를 제공하고 있지만, 생성된 응답은 여러 전형에 대한 정보를 나열하며 원문과의 일관성을 잃고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문에서 요구하는 질문에 대한 직접적인 답변을 제공하지 않고, 관련 없는 정보로 가득 차 있습니다. 원문에서 가장 많이 모집하는 학과에 대한 정보가 아닌 다양한 전형에 대한 설명이 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 흐름이 원문과 맞지 않아 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 전체적으로 일관된 주제를 가지고 있지 않아 논리적인 흐름이 부족합니다. 원문과의 연결이 약해 coherence 점수가 낮습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 정보나 불필요한 세부사항이 포함되어 있습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련 없는 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없고 혼란스러워 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.59485850441438</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 정확히 파악하기 위해서는 각 학과별로 정원 내외 모집 인원을 모두 확인해야 합니다. 하지만 주어진 정보만으로 판단한다면, 다음과 같은 점들을 고려해 볼 수 있습니다:
+1. **나군 실기/실적(경기실적우수자전형)**: 경기지도학과에서 배드민턴(남) 3명, 축구(남) 4명을 모집하고 있습니다.
+2. **나군 학생부교과(농어촌학생전형)**: 이 전형은 특정 학과에 대한 정원 내외 모집 인원이 명시되어 있지 않지만, 농어촌 지역 출신 지원자를 대상으로 합니다.
+3. **나군 학생부종합(성인학습자(정원내)전형)**: 이 전형도 특정 학과에 대한 정원 내외 모집 인원이 명시되어 있지 않지만, 성인학습자 대상입니다.
+4. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형에서도 특정 학과에 대한 정원 내외 모집 인원이 명시되어 있지 않습니다.
+5. **나군 실기/실적 위주 전형**: 디자인조형학과와 체육학과를 제외하고 나머지 학과는 24명을 모집하고 있습니다 (디자인조형학과, 체육학과는 각각 7명씩 모집).
+6. **나군 수능 위주 전형**: 이전의 변경사항에서 보듯이 특정 학과에 대한 정원 내외 모집 인원이 명시되어 있지 않습니다.
+따라서 주어진 정보만으로 판단하면, **나군 실기/실적 위주 전형**에서 디자인조형학과와 체육학과를 제외한 나머지 학과들이 가장 많은 정원을 가지고 있는 것으로 보입니다. 하지만 이는 특정 학과의 명시적인 모집 인원이 주어진 정보에서 확인되지 않아 완벽하게 확신할 수는 없습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 정확하게 설명하고 있으며, 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다는 사실을 잘 반영하고 있습니다. 그러나, 응답의 일부 내용은 원문에 명시된 사항을 완전히 반영하지 못하고 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 원문에서 언급된 특정 조건들(예: 농어촌지역 또는 도서·벽지에 소재한 특수목적고의 종류)에 대한 구체적인 언급이 부족하여 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 동의대 학생부교과 농어촌학생전형에 대한 지원 자격에 대한 정보를 잘 다루고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 자연스럽지 않을 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 약간의 중복된 내용이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, 일부 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 일부 표현이 원문의 맥락과 완전히 일치하지 않아 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 구성되어 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4976915892548543</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你可能不符合东义大学学生部课程（农村学生类型）的申请资格。
+具体来说，在“农区学生类型”中：
+- 农村(镇·面)地区中的中学和高中期间，本人及其父母双方（如果父母一方去世或离婚，则不包括该方）都必须在农村(镇·面)地区居住。
+- 特殊目的高中（科学高中、国际高中、外语高中、体育高中、艺术高中等）的毕业生不能申请。
+因此，如果你是特殊高中（如科学高中、国际高中、外语高中、体育高中或艺术高中），你将不符合东义大学学生部课程（农村学生类型）的申请资格。你需要选择其他类型的入学途径。
+建议你查看东义大学官方网站上的详细信息，或者直接联系招生办公室以获取更准确的信息和指导。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 존재합니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6048253269563206</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 표준점수: 317.87
+- 수학 표준점수: 317.87 
+- 영어 등급 점수: 3.77
+- 탐구 표준점수: 4.49
+따라서, 합산 평균 성적은 { 317.87 + 317.87 + 3.77 + 4.49 } / 4 = 323.50 점입니다.
+참고로, 이는 최종 등록자들의 성적을 기준으로 한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 허위 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5466265526871806</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 317.87 / 7.35 }
+따라서, 소프트웨어공학부 최초합격자의 평균 성적은 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하지만, 최초 합격자 발표일과 충원 합격자 발표일에 대한 구체적인 날짜를 명시하지 않고 일반적인 설명을 하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 구체적인 날짜와 시간에 대한 언급이 부족하여 일관성이 떨어집니다. 특히, 최초 합격자 발표일과 충원 합격자 발표일이 명확히 언급되지 않아 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 날짜와 시간에 대한 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 날짜와 시간에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 구체적인 사실이 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 구체적인 날짜와 시간에 대한 정보가 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.6935481873289014</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자 발표 일정은 각 전형별로 다소 다르게 진행될 수 있습니다. 일반적으로:
+1. 최초합격자는 대체로 정시모집 원서접수 마감일(2024년 1월 6일) 이후에 시작됩니다.
+2. 충원합격자는 최초합격자 발표 후 순차적으로 이루어지며, 보통 2-3차까지 진행될 수 있습니다.
+3. 정확한 발표 일정은 동의대학교 입학관리 홈페이지를 통해 공고되므로, 해당 사이트를 주기적으로 확인하시거나, 합격자 발표일정 안내를 따르시는 것이 좋습니다.
+4. 2024년 2월 15일부터 2월 20일까지는 3차 충원합격자를 포함한 모든 합격자 발표가 이루어질 예정입니다.
+따라서 최종적인 합격자 발표 일정은 동의대학교 공식 홈페이지를 통해 확인하시기 바랍니다. (https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일에 진행된다고 명시되어 있지만, 생성된 응답에서는 2024년 1월 17일에 실기고사가 있다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 날짜와 내용을 포함하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로는 적절하지 않으며, 실기고사 일정에 대한 정보가 포함되어 있습니다. 그러나 원본 텍스트의 핵심 주제와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 적습니다. 그러나 실기고사에 대한 언급이 있어 완전히 부적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 주제와의 관련성이 떨어져서 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4766814775471705</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일 수요일에 디자인조형학과(시각디자인, 산업디자인, 공예디자인)와 체육학과의 실기고사가 있습니다. 
+대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서, 면접고사는 이 날짜와 시간을 참고하여 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 언급하고 있지만, 추가적인 정보와 추론을 포함하고 있어 원문과의 일치성이 떨어진다. 원문에서 명확히 언급된 내용 외에 불필요한 추론이 포함되어 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가적인 정보와 해석이 포함되어 있어 일관성이 떨어진다. 원문에서 제공된 정보에 대한 해석이 다소 모호하게 느껴질 수 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 정보 외에 추가적인 세부사항이 포함되어 있어 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽다. 그러나 일부 추가 정보가 포함되어 있어 전체적인 일관성이 약간 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 대한 정확성을 유지하고 있지만, 추가적인 해석과 추론이 포함되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원문과의 일치성 및 정확성에서 다소 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 추가적인 해석이 포함되어 있어 의미의 적절성이 약간 떨어질 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4348983147783202</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医学科（한의예과）的具体最低学力标准。但是，根据给定的信息片段，可以推断出一些关于韩医学科招生的一般性要求：
+1. 在“나군 학생부교과(농어촌학생전형) - 정원외”部分中提到，“수능최저기준 없음”，这意味着对于该类型的学生，没有明确的高考最低标准。
+2. 在“다군 수능(일반학생전형)”部分中提到，“수능최저기준 없음”，同样表明对于一般类型的考生也没有明确的高考最低要求。
+3. 从整体来看，韩医学科似乎对高考成绩没有硬性要求。但是，这并不意味着完全没有学术能力的要求。通常情况下，大学在招生时会考虑学生的综合表现，包括但不限于学业成绩、面试表现等。
+4. 如果需要更具体的信息，建议直接访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）或联系学校的招生办公室获取最新的详细信息和要求。
+因此，根据提供的信息片段，韩医学科没有明确的高考最低学力标准。但具体的录取条件可能包括其他方面的评估，如面试表现等。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 여러 가지 추측과 잘못된 정보를 포함하고 있습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 동의대학교의 수능 최저학력 기준이 없다는 점과 모순됩니다. 이로 인해 일관성 점수는 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 직접적인 답변이 아니며, 관련 없는 정보가 포함되어 있습니다. 그러나 일부 내용은 관련이 있을 수 있으나, 전반적으로 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 내용이 명확하지 않아 읽기에는 다소 어려움이 있습니다. 따라서 유창성 점수는 중간 정도로 평가합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보가 혼합되어 있어 논리적인 흐름이 부족합니다. 원본 텍스트와의 연결이 약해 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 기록하고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 내용이 혼란스럽고 명확하지 않아 이해하기 어렵습니다. 일부 정보는 이해할 수 있으나, 전반적으로 명확성이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4698651191443012</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年各专业在普通类招生（정시）中的具体最低录取标准（수능최저학력기준）。但是根据给出的信息，可以推测一些专业的最低要求：
+1. 对于大多数专业来说，可能会采用综合评价的方式，而不是单纯依靠最低分数线。
+2. 有些专业如“多军”类的专业可能完全依赖于高考成绩百分比来录取（例如：{0 / 0 / 0 / 0 / 0 / 100 /} 表示所有科目都以高考成绩为准）。
+3. 对于一些特定专业，可能会有最低的高考单科要求，如数学或英语等。
+4. 部分专业可能没有明确的最低分数线要求，而是根据考生的整体表现进行综合评价录取。
+为了获取具体的最低录取标准信息，建议直接访问东国大学入学指南网站（http://ipsi.deu.ac.kr）查看最新的招生简章和具体专业的录取要求。该网站通常会发布详细的招生政策、最低录取分数线等重要信息。</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 일부를 정확하게 반영하고 있지만, 1차 및 2차 발표 일정에 대한 언급이 없고, 전화 연락 두절에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 1차 및 2차 발표 일정이 누락되어 있어 일관성이 떨어집니다. 또한, 전화 연락 두절에 대한 언급은 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 전화 연락 두절에 대한 언급이 원본 텍스트와 관련이 없기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 포함하고 있지만, 1차 및 2차 발표 일정이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 일부 정보의 누락과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 내용이 원본 텍스트와 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7788503085685821</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에도 충원합격이 되었으므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차와 2차 충원 합격자 발표 일정은 정확하게 반영하고 있지만, 1차와 2차 충원 합격자 등록 일정이 추가되어 있어 원본 텍스트와는 다소 차이가 있습니다. 또한, "최종 날짜"라는 표현이 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하는 부분이 있지만, 추가된 등록 일정과 "최종 날짜"라는 표현이 원본 텍스트와 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 충원 합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높게 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨리므로 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보(등록 일정 및 최종 날짜)가 포함되어 있어 정확성 점수는 중간으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 사실성과 일관성에서 약간의 부족함이 있어 전체적인 품질 점수는 높지만 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있어 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8678463201867224</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+- **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00~16:00
+이후 추가합격자는 3차 이후에 개별 전화 통보를 통해 발표되며, 이 발표는 **2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지** 이루어집니다.
+따라서 추가합격자 발표의 최종 날짜는 **2024년 2월 20일(화)**입니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 내용(정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발한다는 내용)을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 원본의 특정 세부사항과 일치하지 않는 부분이 있습니다. 예를 들어, 원본 텍스트는 특정 날짜 이후의 상황을 설명하고 있지만, 생성된 응답은 일반적인 추가 모집 정보에 초점을 맞추고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 구체적인 내용과는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실을 정확히 반영하지 않아서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본의 특정 세부사항을 놓치고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5263954967390542</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 추가 모집은 다음과 같은 정보를 바탕으로 확인할 수 있습니다. 하지만 명확한 추가 모집 여부와 관련된 자세한 내용은 공식 홈페이지 (http://ipsi.deu.ac.kr)를 참조하시거나 입학처에 문의하시는 것이 가장 정확합니다.
+특히, 2024학년도 주요 변경사항 표에서 다음과 같은 정보가 있습니다:
+- 학과 분리(학부→학과), 학부 통합, 학과(전공) 명칭 변경 등이 이루어졌습니다.
+- 일부 전형의 모집인원이나 지원자격이 변경되었습니다 (예: 경기지도학과 신설 및 전공 모집중지).
+- 실기/실적 위주의 전형에서 서류 평가 비율이 조정되었습니다.
+따라서 추가모집 여부와 관련된 최신 정보는 공식 입학 홈페이지를 통해 확인하시거나, 직접 동의대학교 입학처에 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 잘 요약하고 있으나, "고등학교 졸업(예정)자가 아닌 성인 학습자를 대상으로 하는 입학 전형입니다."라는 부분은 사실과 다릅니다. 평생학습자전형은 고등학교 졸업(예정)자도 지원할 수 있는 전형입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 일부 정보가 일관되지만, 성인 학습자를 대상으로 한다는 주장은 원본 텍스트와 모순됩니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 주요 내용을 잘 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 전반적으로 정확한 정보를 제공하지만, 성인 학습자에 대한 언급이 사실과 다르기 때문에 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 성인 학습자에 대한 언급이 부적절하여 약간의 점수 하락이 있었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.8182086994996935</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 고등학교 졸업(예정)자가 아닌 성인 학습자를 대상으로 하는 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집 단위 및 인원:
+   예를 들어, 미래융합대학 라이프융합학부는 11명을 모집하고 있습니다.
+3. 서류 제출 항목:
+   - 고교 학교생활기록부 (온라인 제공 동의자 제외)
+   - 검정고시 합격증서 사본 또는 합격증명서
+   - 검정고시 성적증명서
+   - 외국고교 졸업(예정)자의 경우 공증받은 증명서와 성적증명서 등
+4. 전형 요소 반영 비율:
+   서류 70%, 면접 30%
+5. 추가 제출 사항:
+   외국고교 졸업 예정자는 2024년 2월 16일까지 졸업증명서를 제출해야 합니다.
+6. 지원 기간 및 장소:
+   - 제출기간: 2024년 1월 3일 ~ 12일
+   - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+7. 서류 제출 확인:
+   지원자는 반드시 홈페이지에서 자신의 서류제출 여부를 확인해야 합니다.
+이러한 정보는 기본적인 내용이며, 각 모집단위별로 세부 사항이 다를 수 있으므로 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.902026238868727</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 포함하고 있으며, 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 각 학과의 실기고사 날짜에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 간주됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 각 학과별 실기고사 일정에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만 제공하고 있으므로, 추가된 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사에 대한 구체적인 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적인 유창성은 유지되고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 실기고사 일정이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 정보가 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 정보도 적절하게 연결되어 있습니다. 그러나 원본 텍스트의 정보와는 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 독자에게는 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6632504161569815</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 다음과 같은 곳으로 진행됩니다:
+1. 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+2. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 각 학과별로 일정이 다르므로, 해당 학과의 실기고사 날짜와 시간을 확인하여 대비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 대신 실기고사 종목과 관련된 정보가 제공되고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사에 대한 구체적인 정보가 제공되지만 원본의 내용과는 상충합니다. 원본 텍스트의 정보와 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 정보는 명확하지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 실기고사에 대한 정보가 포함되어 있지만 원본의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3856787120603232</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 응시합니다.
+추가로 주의할 점:
+- 운동복 및 운동화를 착용해야 함
+- 스파이크나 축구화 등 특수화는 불가능
+- 신발바닥에 이물질이 가칠 수 없음
+- 부상이나 기타 사유로 인해 기권한 경우 최저점수 부여
+- 각 종목별 2회 반칙 시 최저점수 부여
+실기고사는 체육학과에서 진행되며, 해당 학과의 입학관리팀이나 홈페이지를 통해 자세한 정보와 준비사항을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보가 잘못된 부분이 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 연락이 중요하다고 언급하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 전화 연락이 이루어지지 않는다고 명시하고 있는데, 생성된 응답에서는 전화 연락이 중요하다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 전화 연락의 중요성에 대한 언급이 원문과는 다르게 해석될 수 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 전화 연락의 중요성을 강조하는 부분이 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 전화 연락이 이루어지지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 전화 연락의 중요성을 강조하는 부분이 원문의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6995619754718474</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우, 충원합격은 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 이 기간 동안에는 전화 연락을 받는 것이 중요합니다.
+즉, 수시 충원합격자 발표 시에는 별도의 개인 연락이 이루어지지는 않으며, 지원자는 해당 기간 내에 전화를 받는 것을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 정확히 전달하고 있습니다. 그러나 "정확한 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 확인할 수 없습니다"라는 문장은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있습니다. 다만, 추가적인 정보 제공 방법을 제시하면서 원본 텍스트의 내용과 약간의 차이를 보일 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과를 알고 싶어하는 독자에게 유용한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "정확한 수시모집 결과"라는 표현이 다소 애매할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7392479895425166</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 확인할 수 없습니다. 제공된 정보 중 경찰행정학과 관련 내용은 학과 분리 및 통합, 명칭 변경 등에 관한 것이며, 실제 모집결과나 입학률 등의 정보는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 공식 홈페이지를 확인해보세요.
+2. 입학처나 관련 학부/학과에 직접 문의해보세요.
+3. 한국대학정보원(KAIS) 등 정부기관의 대학 정보 서비스를 이용하세요.
+이러한 방법들을 통해 가장 최신이고 정확한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 전형에서 수능을 응시하지 않아도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수적이라고 명시하고 있지만, 생성된 응답은 일부 전형에서 수능을 응시하지 않아도 지원이 가능하다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 핵심 질문에 대한 직접적인 답변이 아닌 추가적인 정보가 포함되어 있습니다. 따라서 관련성은 높지만, 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약해 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 수능 응시가 필수적이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계에서 부정확한 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와는 다소 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5418854676917154</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부교과와 학생부종합 등의 전형은 수능 점수를 반영하지 않을 수 있습니다.
+특히 주목할 만한 내용들은 다음과 같습니다:
+1. **학생부교과(농어촌학생전형)**: 이 전형에서는 수능 성적을 반영하지 않습니다. 지원 자격과 제출 서류에 집중해야 합니다.
+2. **나군 학생부종합(평생학습자전형), (성인학습자(정원내)전형), (성인학습자(정원외)전형), (재직자전형), (조기취업형계약학과전형)**: 이들 전형에서도 수능 성적을 반영하지 않으며, 학생부와 면접 등을 통해 평가됩니다.
+따라서 수능 응시를 하지 않은 지원자가 이러한 전형에 지원할 수 있습니다. 하지만 다른 전형(예: 가군 수능(일반학생전형))에서는 수능 성적이 필수적으로 반영되므로, 해당 전형의 경우 수능을 반드시 응시해야 합니다.
+자세한 내용은 동의대학교 입학처 홈페이지를 참조하시거나 문의하시면 더욱 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우 정시 지원이 불가능하다고 주장하고 있습니다. 그러나 원본 텍스트에서는 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있습니다. 이로 인해 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 모든 고등학교 졸업자가 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 특정 조건을 제시하며 정시 지원이 어렵다고 주장합니다. 이로 인해 두 텍스트 간에 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 정시 지원 가능성에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있어 완전한 관련성을 갖추고 있지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원본 텍스트의 주제와는 다소 동떨어진 내용이 포함되어 있어 일관된 흐름이 부족합니다. 따라서 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 좋지 않습니다. 따라서 다차원적 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 특정 전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있습니다. 따라서 의미적으로 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 복잡하게 구성되어 있어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6670807265207642</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 일반적으로 고등학교 졸업 후 10년 이상 경과한 자는 정시 모집에 지원할 수 없습니다. 대다수의 학과에서는 최소 3년 이내의 고교 졸업자 또는 법령에 의한 동등학력 소지자를 대상으로 하고 있습니다.
+하지만, 일부 특별전형이나 재직자 전형 등에서 오랜 기간 경과한 자도 지원할 수 있는 경우가 있으므로, 아래와 같이 확인해보시기 바랍니다:
+1. **학생부종합(평생학습자전형)**: 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로, 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 자가 지원할 수 있습니다. 이는 재직 경력을 중점적으로 평가합니다.
+2. **학생부종합(성인학습자전형)**: 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자입니다. 이는 성인 학습자를 대상으로 하며, 재직 경력을 중점적으로 평가합니다.
+3. **학생부종합(재직자전형)**: 「고등교육법 시행령」 제29조 제2항 제14호 '다'목에 해당하는 자로서 2024년 3월 1일 기준 산업체 근무경력이 3년 이상인 재직자입니다. 이는 재직 경력을 중점적으로 평가합니다.
+따라서, 고등학교 졸업 후 10년이 지났다면, 위의 특별전형을 통해 지원할 수 있는 가능성이 있습니다. 하지만 정시 모집에서는 일반적으로 지원이 어렵습니다. 자세한 내용은 동의대학교 입학처 웹사이트나 전화로 문의하시기 바랍니다.
+[입학 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 방법에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 사항을 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8794737782226258</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 
+   - 시작일: 2024년 1월 3일(수) ~ 2024년 1월 6일(토)
+   - 마감시간: 각 날짜별 18시까지
+3. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 일시: 2024년 1월 16일(화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인 가능
+4. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 일시: 2024년 1월 17일(수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인 가능
+5. **합격자 발표 및 등록금 납부 (최초 합격자)**:
+   - 일시: 2024년 2월 2일(금) 14:00
+   - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+6. **합격자 등록 (최초 합격자)**:
+   - 일시: 2024년 2월 7일(수) ~ 13일(화)
+   - 방법: 지정은행에서 납부, 등록금 고지서에 기재된 지점에서 납부
+7. **합격자 발표 및 등록 (충원 합격자 1차)**:
+   - 일시: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+8. **합격자 등록 (충원 합격자 1차)**:
+   - 일시: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 방법: 지정은행에서 납부, 등록금 고지서에 기재된 지점에서 납부
+9. **합격자 발표 및 등록 (충원 합격자 2차)**:
+   - 일시: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+10. **합격자 등록 (충원 합격자 2차)**:
+    - 일시: 2024년 2월 15일(목) 09:00 ~ 16:00
+    - 방법: 지정은행에서 납부, 등록금 고지서에 기재된 지점에서 납부
+11. **합격자 발표 및 등록 (충원 합격자 3차 이후)**:
+    - 일시: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+    - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+이 일정은 최초 합격자부터 충원 합격자 발표 및 등록 과정을 포함하며, 모든 지원자는 해당 일정에 따라 합격 여부를 확인하고 지정된 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8783461824906105</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 서류 제출 대상: 입학관리팀 지정
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+     - 홈페이지에서 개별 조회 가능
+   - 최초 합격자 등록: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024년 2월 14일(수) 09:00
+     - 2차 (인터넷): 2024년 2월 15일(목) 09:00
+   - 3차 이후 충원 합격자 발표 및 등록:
+     - 개별 전화 통보: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이 일정은 일반적으로 동의대학교 정시모집에서 적용되며, 각 모집단위별로 세부적인 일정이 다를 수 있으므로 공식 홈페이지 (http://ipsi.deu.ac.kr)를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 제공합니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답은 특정 학과에서 수능 미응시자가 지원할 수 있다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 담고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 다르게 수능 미응시자가 지원할 수 있는 전형을 제시하고 있어, 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 플루언시 점수는 다소 낮게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 원문과의 내용적 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 정도의 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 상반되는 내용을 담고 있어 정확성 점수는 최하점입니다. 수능 미응시자는 지원이 불가능하다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적 적절성 점수는 최하점입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 높지만, 내용의 신뢰성 때문에 낮은 점수를 부여합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.5464770301242272</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형은 다음과 같습니다:
+1. **레저스포츠학과, 태권도학과** - 가군 실기/실적(일반학생전형)
+2. **디자인조형학과, 체육학과, 경기지도학과** - 나군 실기/실적(일반학생전형)
+이러한 전형에서는 수능 성적이 반영되지 않으며, 대신 실기나 실적을 평가하는 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 명확한 데이터가 없다는 점을 언급하고 있지만, 전년도에 충원 합격이 36명까지 이루어졌다는 사실을 누락했습니다. 또한, 2024년도 모집 정보에 대한 세부사항은 제공되었으나, 이는 원본 텍스트와 직접적인 관련이 없습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 충원 합격 차수에 대한 정보가 없다는 점과 전년도 충원 합격 수에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 일반적인 입시 절차에 대한 언급은 원본 텍스트와의 일관성을 해치는 요소입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전년도 충원 합격 수에 대한 구체적인 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 2024년도 모집 정보에 대한 언급은 관련성을 높이는 요소입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 coherence가 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 충원 합격 수에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 사실을 완전히 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.685324977219806</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로, 전년도(2023년도) 전자공학과의 충원 합격 차수에 대한 명확한 데이터는 제공되지 않았습니다. 하지만 일반적인 입시 절차와 기준을 고려하면, 대부분의 대학은 최소 1차에서 3차까지의 충원 과정을 진행합니다.
+2024년도의 경우:
+- 1차 충원 합격 발표: 2024. 02. 14.(수) 09:00
+- 1차 충원 합격 등록: 2024. 02. 14.(수) 09:00~16:00
+- 2차 충원 합격 발표: 2024. 02. 15.(목) 09:00
+- 2차 충원 합격 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 전년도에도 대체로 같은 절차를 따랐을 가능성이 높습니다. 하지만 정확한 정보는 해당 대학의 입시 안내나 공지사항을 확인해야 합니다.
+더 자세한 정보가 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처를 잘못된 정보로 제공하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 원본 텍스트의 전화번호는 051-890-4379~89인데, 생성된 응답에서는 "(주)유웨이어플라이 : 1588-8988"이라는 잘못된 번호를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트의 연락처와 생성된 응답의 연락처가 서로 다르며, 이는 일관성을 결여한 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 입학처에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 연락처에 대한 정확한 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 원본 텍스트의 핵심 정보와는 크게 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6517270184970712</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처는 "(주)유웨이어플라이 : 1588-8988"이며, 이메일 주소는 http://www.uwayapply.com 입니다. 그러나 직접적인 전화번호나 이메일은 제공되지 않았습니다. 지원자 유의사항에서 인터넷 원서접수 관련 문의사항은 해당 연락처를 통해 문의할 수 있습니다.
+만약 더 정확한 전화번호가 필요하다면, 주어진 URL(https://ipsi.deu.ac.kr/main.do)을 방문하여 공식 웹사이트에서 최신 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전화 통화가 되지 않을 경우에도 합격자로 인정받을 수 있다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명확히 설명하고 있습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 전화 통화가 되지 않을 경우에도 합격자로 인정받을 수 있다는 점에서 원문과 모순되는 부분이 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊고, 충원합격자 발표 과정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제시된 사실과 일부 다르게 해석되고 있으며, 특히 전화 통화가 되지 않을 경우의 처리에 대한 설명이 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 부족함이 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 내용에서 원문의 의미와 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용에서 혼란을 줄 수 있는 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.685417706412024</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우에도 합격자로 인정받을 수 있습니다. 다만, 합격 사실을 확인하지 못한 지원자가 등록(입학)을 하지 않는 경우에는 등록포기자로 간주될 수 있으므로, 합격자 발표일에 합격 여부를 반드시 홈페이지에서 확인해야 합니다.
+따라서 전화 통화가 되지 않더라도 다음 사항들을 준수해야 합니다:
+1. 합격자 발표일에 합격 여부를 홈페이지에서 확인합니다.
+2. 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령하여 보관합니다.
+3. 등록은 지정된 기간 내에 학교 지정 은행에서 이루어져야 합니다.
+이러한 절차들을 준수하지 않으면, 합격 사실을 모르고 등록하지 않은 경우 등록포기자로 간주될 수 있으므로 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출 요건에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 필요한 서류와 제출 기간 등 중요한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.912601090814154</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 지원 자격에 따라 다르게 요구되는 서류가 있습니다. 
+### 6년 과정 (중·고등학교 재학기간 중 본인 및 부모 모두 농어촌 지역 거주)
+- **지원자 본인의 가족관계증명서** 1부
+- **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+- **중학교 학교생활기록부** 1부
+- **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+  - 부모가 사망한 경우, 추가로 제출해야 하는 서류:
+    - **사망한 부 또는 모의 기본증명서 1부**
+      - 기본증명서에 ‘사망’이 명시되어 있지 않은 경우에는 **제적등본 1부**를 추가로 제출합니다.
+  - 부모가 이혼한 경우, 추가로 제출해야 하는 서류:
+    - **친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부**
+    - **본인의 기본증명서(상세) 1부**
+### 12년 과정 (부모의 거주지와 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자)
+- **지원자 본인의 주민등록초본** 1부
+- **초등학교 학교생활기록부** 1부
+- **중학교 학교생활기록부** 1부
+- **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 공통 사항:
+- 제출기간: 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지 도착분에 한함
+- 제출장소: 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.
+최종 등록자 중 고교 졸업예정자는 졸업 이후 지원 자격 증빙서류를 2024년 2월 16일(금)까지 추가로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "참고로, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있습니다. 그러나 추가된 발급처 정보는 원본 텍스트와의 일관성을 약간 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제출해야하는"이라는 표현에서 "해야 하는"으로 띄어쓰기를 하면 더 자연스러울 것입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 발급처 정보가 원본 텍스트의 흐름과 약간의 불일치를 초래합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보가 원본에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 발급처 정보는 원본의 의도와는 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 서류 목록이 잘 정리되어 있습니다. 그러나 약간의 문법적 수정이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8387662023743016</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+참고로, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 오히려 그 존재 여부에 대한 불확실성을 제기하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그에 대한 의문을 제기하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 시도하고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있으나, 원문과의 관계에서 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 기회균등 전형의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 시도하지만, 의미적으로 적절하지 않으며 원문의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 원문과의 관계에서 혼란을 초래할 수 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5669338661223789</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到是否在正选招生（정시모집）中进行低收入机会均等类型的录取。因此，根据给定的信息无法确定正选招生是否会包含针对低收入家庭的特殊录取计划。
+如果您需要了解这方面的详细信息，建议直接访问东国大学官方网站 (http://ipsi.deu.ac.kr) 或者联系学校的入学管理委员会以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급이 절사 처리된다고 주장하지만, 원본 텍스트에서는 수능 최저등급의 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 처리에 대한 주장을 하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급 산출 방식에 대해 설명하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변은 아닙니다. 그러나 관련된 주제를 다루고 있어 어느 정도의 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적 일관성이 떨어집니다. 원본 텍스트의 질문에 대한 명확한 답변이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 수능 최저등급의 절사 여부에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 관련성은 어느 정도 있지만, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 절사 처리에 대한 주장은 원본 텍스트의 내용과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5746422498125564</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 탐구 영역의 등급은 절사 처리됩니다.
+따라서, 사탐(사회) 2과목의 평균이 2.5등급이라면, 이는 3등급으로 절사되어 반영됩니다.
+즉, 2.5등급은 3등급으로 처리되므로, 수능 탐구 영역에서 3등급을 받게 됩니다.
+수능 탐구 영역의 등급 산출 방식은 다음과 같습니다:
+1. 두 과목의 등급을 더한 후 2로 나눕니다.
+2. 결과를 소수점 셋째자리까지 반올림합니다.
+3. 절사 처리하여 최종 등급을 결정합니다.
+따라서, 평균이 2.5등급이라면 3등급으로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표에 대한 주요 사실을 잘 반영하고 있으며, 발표 일정과 방법에 대한 정보도 포함되어 있습니다. 그러나 "방법: 홈페이지 개별 조회"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 발표 일정과 차수에 대한 정보는 일치하지만, 방법에 대한 추가 정보가 원본 텍스트와 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 충원 합격자 발표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 발표 방법에 대한 정보가 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본 텍스트와 다소 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7039690904097385</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 정시 모집의 충원 합격자는 총 3차로 발표됩니다.
+발표 일정은 다음과 같습니다:
+1. 1차 충원 합격자 발표:
+   - 날짜: 2024년 2월 14일(수) 오전 9시
+   - 방법: 홈페이지 개별 조회
+2. 2차 충원 합격자 발표:
+   - 날짜: 2024년 2월 15일(목) 오전 9시
+   - 방법: 홈페이지 개별 조회
+3. 3차 이후 충원 합격자 발표 (개별 전화 통보):
+   - 날짜: 2024년 2월 15일(목) 오후 7시 ~ 2024년 2월 20일(화) 오후 6시까지
+   - 방법: 홈페이지 개별 조회
+이러한 충원 합격자는 각 차례에 따라 등록 절차를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 합격 가능성에 대한 정보를 제공하고 있지만, 제공된 원문에서 언급된 평균 점수와는 관련이 없는 가상의 정보를 포함하고 있습니다. 따라서 사실성과 관련하여 많은 부정확성이 존재합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 가정에 기반하고 있으며, 원문에서 언급된 평균 점수와 관련된 내용을 무시하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원문에서 제공된 구체적인 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결성이 부족하여 논리적인 흐름이 약간 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과는 다른 가정에 기반하고 있으며, 실제 상황과는 맞지 않는 정보를 포함하고 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 원문의 맥락과는 다소 동떨어진 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원문과의 관련성이 떨어져서 질문에 대한 명확한 답변으로는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5388955515845726</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. **e비즈니스학과의 모집인원 및 최저합격선**: 需要确认该专业的招生人数和最低录取分数线。
+2. **考生的其他成绩情况**：需要了解考生在其他科目（如国语、数学、英语等）的成绩，因为不同专业可能会有不同的加权标准。
+3. **e비즈니스学部的具体录取政策**：需要查看e비즈니스학과的具体录取政策和评分标准。
+假设我们已经有了以下信息：
+- e비즈尼斯学部2024年的招生人数为10人。
+- 最低录取分数线是国语3.5，数学4.0，英语4.0，综合成绩4.6。
+- 考生的其他科目成绩如下：
+  - 国语：3.8
+  - 数学：4.2
+  - 英语：4.1
+根据这些假设信息：
+- 国语（3.8） &gt; 最低要求（3.5）
+- 数学（4.2） &gt; 最低要求（4.0）
+- 英语（4.1） &gt; 最低要求（4.0）
+综合成绩为 4.6，也超过了最低录取分数线。
+在这种情况下，考生的国语、数学和英语成绩都达到了或超过e비즈尼斯学部的要求，并且综合成绩也符合标准。因此，在假设的情况下，该考生有可能通过e비즈尼斯学部的正试（정시）录取。
+但是请注意，这只是一个基于假设情况的回答。实际录取结果会根据具体的招生计划、其他考生的成绩以及学校的具体政策来确定。建议查看学校的官方信息或直接咨询学校以获取准确答案。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e비즈니스학과의 평균 영어 등급을 3.20로 언급하고 있으나, 원본 텍스트에서는 3.66으로 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다. 나머지 정보는 대체로 정확하지만, 평균 등급에 대한 불일치가 주요 문제입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 영어 등급의 차이로 인해 일관성이 떨어집니다. 또한, 경쟁률과 평균 점수에 대한 정보는 원본과 다소 다르게 해석되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, e비즈니스학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 평균 영어 등급의 불일치로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 응답의 대부분은 정확하지만, 평균 영어 등급에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다. 이로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 사실성과 일관성에서의 문제로 인해 완벽한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 평균 영어 등급의 불일치로 인해 약간의 문제가 발생합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5974295294978844</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격 가능성을 판단하기 위해서는 몇 가지 정보를 고려해야 합니다.
+1. **수능 성적**: e비즈니스학과는 일반적으로 수능 위주의 전형으로 운영되며, 합격자들의 평균 수능 점수가 제공된 표에서 확인할 수 있습니다.
+2. **최초합격자 표**:
+   - e비즈니스학과의 최고 경쟁률은 8.90입니다 (표 중에서).
+   - 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합 평균은 438.60이고, 표준 편차는 6.87입니다.
+   - 영어 등급 평균은 3.20이며, 표준 편차는 1.24입니다.
+3. **성적 분석**:
+   - 정시 등급 5.3의 수능 점수를 확인해야 합니다. 이 등급에 해당하는 점수는 다음과 같습니다.
+     - 등급 1: 139
+     - 등급 2: 131
+     - 등급 3: 123
+     - 등급 4: 115
+     - 등급 5: 107
+     - 등급 6: 99
+     - 등급 7: 91
+     - 등급 8: 83
+     - 등급 9: 75
+   - 정시 등급 5.3의 점수는 대략 107점입니다.
+4. **합격 가능성**:
+   - e비즈니스학과의 평균 수능 점수(국어 + 수학 + 탐구)는 438.60이며, 표준 편차가 6.87이므로 이보다 낮은 점수가 최초합격을 보장하지는 않습니다.
+   - 정시 등급 5.3의 점수(107점)는 평균 수능 점수와 비교해보면 상대적으로 낮습니다.
+따라서, 정시 등급 5.3으로 e비즈니스학과에 최초합격하는 것은 가능하지만 매우 어렵다고 볼 수 있습니다. 경쟁률이 높고 평균 수능 점수가 높기 때문에, 더 높은 수능 점수나 다른 전형 요소(면접 등)가 필요할 것입니다.
+추천 사항:
+- 추가적으로 실적이나 면접 등의 성적이 우수하다면 합격 가능성을 높일 수 있습니다.
+- 다른 전형(예: 학생부교과, 학생부종합 등)으로 지원해 볼 것을 고려할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 원본에서 제공된 정보(예비 38번의 합격 가능성이 낮다는 점)를 무시하고 다른 가정과 조건을 제시하고 있습니다. 이는 원본의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 원본의 내용을 반영하지 않고 새로운 정보를 추가하여 혼란을 초래합니다. 원본의 주장을 반박하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 원본의 핵심 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본의 맥락을 벗어난 정보가 많아 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본과의 관련성이 떨어지기 때문에 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본의 주제와 관련된 내용이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 원본에서 제시된 정보와는 전혀 다른 내용을 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락을 잘 반영하지 못하고 있으며, 원본의 질문에 대한 적절한 답변이 아닙니다. 그러나 일부 내용은 의미적으로 적절할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 원본의 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4508466191636197</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关的信息。根据您提供的信息，我将假设以下几点：
+1. 您指的是某个特定的招生计划或考试。
+2. "eBiznesis学"可能是指“e-Business”（电子商务）专业。
+3. “预备38号”可能是指考生编号或者排名。
+但是，没有具体的评分标准、成绩要求或其他相关信息，很难直接判断是否能够预录取。通常情况下，预录取的标准会包括以下几个方面：
+1. **学术成绩**：需要查看您的成绩单或学分绩点（GPA）。
+2. **标准化考试成绩**：如高考成绩等。
+3. **面试表现**：如果适用的话，还需要考虑面试的表现。
+4. **其他因素**：如推荐信、个人陈述等。
+假设您提供了以下信息：
+- 成绩单显示您的学术成绩非常优秀（例如GPA 4.0或以上）。
+- 高考成绩符合目标专业的录取标准。
+- 您在面试中表现良好，获得了高分评价。
+- 没有其他负面因素影响您的申请。
+在这种情况下，预录取的可能性较大。但是具体到“预备38号”是否能够预录取，还需要参考具体的招生计划和评分标准。建议您查看相关专业的详细要求，并咨询学校的招生办公室以获取更准确的信息。
+如果您能提供更多的具体信息（如成绩、面试分数等），我可以帮助进行更详细的分析。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.44라는 점수에 대한 해석도 적절합니다. 그러나 일부 세부사항(예: 2024년 최초합격자 표의 평균 점수)에 대한 정보는 명확히 출처가 제시되지 않아 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 합격 가능성에 대한 논의가 일관되게 이어집니다. 다만, 일부 추가 정보가 원본 텍스트에 명시되지 않은 점이 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하지만, 일부 세부사항의 출처가 명확하지 않아 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서 약간의 불확실성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 추가 정보가 원본과의 일관성을 약간 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6181182926120243</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 하지만 간호학과의 경우 다음과 같은 특징이 있습니다:
+1. 모집인원이 많아 경쟁률이 높습니다 (최초합격자 표에서 22명 모집, 지원자 수가 145명으로 높은 경쟁률을 보입니다).
+2. 영어 등급 평균이 낮지 않으므로 영어 실력도 중요할 것입니다.
+3. 간호학과는 전문성과 인성을 중시하기 때문에 학생부와 면접 결과도 중요한 역할을 합니다.
+4. 수능 성적 외에도 실기 시험 등 추가 평가 요소가 있을 수 있습니다.
+5. 동의대학교 간호학과의 경우, 2024년 최초합격자 표에서 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균이 307.86로 보입니다 (사회복지학과 참조).
+따라서:
+- 3.44는 평균보다 약간 낮지만, 경쟁률이 높아서 단순히 성적이 낮다고 해서 불합격은 아닙니다.
+- 영어 등급이나 학생부 성적 등을 고려해야 합니다.
+- 면접 결과도 중요할 수 있습니다.
+결론적으로, 3.44라는 점수만으로는 확답을 하기 어렵습니다. 지원자 개인의 전반적인 경쟁력을 종합적으로 평가해야 합니다. 만약 불확실성이 있다면, 동의대학교 입학 홈페이지나 총장실에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답에서 제시된 평균 점수(3.86)와 수능 4개 영역 등급 평균(3.37) 간의 불일치가 있으며, 이는 사실과 다릅니다. 또한, "최종합격자들의 점수가 상대적으로 낮은 편"이라는 주장은 구체적인 데이터 없이 일반화된 표현으로, 정확한 정보가 아닙니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되지 않습니다. 원본 텍스트는 2.52의 성적이 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 이 성적이 평균보다 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 결여합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 지원자의 성적과 관련된 여러 요소를 고려하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 동떨어진 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 요소를 고려하고 있지만, 정보의 흐름이 다소 불명확하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 평균 점수에 대한 언급이 원본 텍스트와 상충하여 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 잘못된 사실을 포함하고 있습니다. 특히, 평균 점수와 관련된 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 질문의 맥락을 어느 정도 반영하고 있지만, 제공된 정보가 정확하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6026582633218894</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 최종합격자들의 수능 성적을 보면 평균 점수가 약 3.86입니다 (평균 / 표준 편차 = { 1.86 / 0.75 }). 
+당신의 성적이 2.52이라면, 이는 평균보다 약간 낮은 수준입니다. 그러나 최종합격자들의 점수가 상대적으로 낮은 편이므로, 가능성을 배제할 수는 없습니다.
+다음 사항들을 고려해보세요:
+1. 다른 평가 요소들: 면접 성적, 서류 평가 등도 중요한 역할을 합니다.
+2. 경쟁률: 모집인원 대비 지원자 수가 매우 높기 때문에 경쟁이 치열합니다.
+3. 추가 정보 제공: 특정 과목의 강점을 부각하거나 특별한 경험 등을 설명하면 유리할 수 있습니다.
+결론적으로, 2.52라는 성적만으로는 확실하게 합격할 수 없다고 말하기 어렵습니다. 전반적인 지원 자질과 경쟁 상황을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.7이라는 성적이 중간적인 점수일 수 있다고 언급하고 있지만, 원문에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 응답의 일부 내용이 원문과 일치하지 않으며, 합격 가능성에 대한 정보가 다소 모호하게 표현되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 3.7이라는 성적이 중간적인 점수라는 주장은 원문과 상충합니다. 또한, 추가 평가 요소에 대한 언급이 있지만, 원문에서의 명확한 결론과는 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 입학 기준과 관련된 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원문에서 제시된 구체적인 데이터와 결론에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 일관성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.7이라는 성적에 대한 해석이 원문과 다르며, 원문에서 제시된 평균 등급과의 비교가 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원문과의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5574333286206937</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 대체로 중간적인 점수일 수 있습니다. 간호학과의 경우, 각 대학마다 다른 입학 기준이 있으므로 정확한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+1. **대입 성적 기준**: 간호학과의 정시 모집에서 요구하는 최저 학력기준이나 수능 점수 등.
+2. **전형별 가산점**: 일부 대학에서는 실기시험, 면접 등의 추가 평가를 통해 합격자를 선발할 수 있습니다.
+3. **모집인원과 지원자 수**: 모집인원이 많다면 경쟁률이 높아지므로 3.7의 성적만으로는 낮은 확률일 수 있습니다.
+4. **학교별 특성**: 일부 대학에서는 인성, 학업역량 등 다양한 요소를 종합적으로 평가하기 때문에 개인적인 특성이 중요할 수 있습니다.
+이러한 정보들을 고려하여 다음과 같은 조언을 드릴 수 있습니다:
+- **수능 성적 확인**: 정시 모집에서 요구하는 최저학력기준이나 수능 점수를 확인하세요.
+- **추가 평가 요소**: 면접, 실기 등 추가 평가 요소에 대해 준비해보세요. 이는 개인적인 특성과 경험을 잘 보여줄 수 있는 기회입니다.
+- **학교 선택**: 여러 대학의 입학 기준을 비교하여 자신에게 가장 적합한 학교를 선택하세요.
+- **추천서 및 자기소개서 작성**: 이러한 서류들은 학업 역량 외에도 개인적인 특성을 잘 보여줄 수 있으므로 신경 써보세요.
+결론적으로, 3.7의 성적만으로는 확실한 합격을 보장할 수 없습니다. 그러나 추가 평가 요소를 잘 준비하고, 자신이 지원하는 대학과 맞는 특성을 잘 보여주면 가능성이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 정시 등급이 2.58이라면 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 합격 가능성이 매우 낮다고 주장하고 있습니다. 이는 원문과 상반되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관되지 않습니다. 원문에서는 2.58의 정시 성적이 평균보다 높다고 하였으나, 생성된 응답에서는 이 성적이 낮다고 평가하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집인원, 지원 인원, 경쟁률 등 관련 정보를 제공하고 있으나, 원문에서 제시한 핵심 정보와는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있습니다. 특히, 정시 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확하게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6730081404428323</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원과 지원 인원을 보면, 다음과 같은 정보가 있습니다:
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 약 6.59대1
+간호학과는 경쟁률이 상당히 높은 편입니다. 평균적으로 지원자들이 좋은 성적을 보여주기 때문에, 정시 성적이 2.58인 경우 합격 가능성은 매우 낮습니다.
+**수능성적 분석:**
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 평균**: 약 370점대
+- **영어 등급 평균**: 1.86등급
+정시 성적이 2.58인 경우, 이는 대략 4등급 정도의 수능 영어 점수가 됩니다. 간호학과에서는 영어 등급이 중요하게 반영되므로, 영어 점수도 낮은 편입니다.
+**합격 가능성:**
+- 현재 데이터로 볼 때, 정시 성적이 2.58인 경우 간호학과에 합격하기는 매우 어려울 것으로 보입니다.
+- 경쟁률이 높고, 특히 수능 영어 점수가 낮은 편이라면 더욱 낮아질 것입니다.
+**추천:**
+1. **기타 전형 확인**: 간호학과에 대한 열망이 있다면, 다른 전형(예: 실기/실적 위주 전형)을 고려해볼 수 있습니다.
+2. **성적 향상**: 현재 성적이 낮은 경우, 추가 학습을 통해 성적을 향상시키는 것이 좋습니다.
+3. **다른 대학/과목 검토**: 다른 대학이나 간호학과 외의 전공을 고려해볼 수도 있습니다.
+결론적으로, 정시 성적이 2.58인 경우 간호학과에 합격하기는 매우 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대해 언급하고 있지만, 원본 텍스트에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다. 따라서 사실관계에 대한 정확성이 부족합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 예비 7번이 충원 과정에서 선발될 가능성이 있다고 주장하지만, 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 예비 7번에 대한 정보와 충원 과정에 대한 세부사항을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 정보가 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 충원 과정에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 예비 7번의 합격 가능성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 예비 7번의 합격 가능성에 대한 정보가 부적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.6973492013805979</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년 게임공학과의 모집인원은 3명이며, 최종합격자는 3명입니다. 현재 게임공학과는 이미 1~6번 합격자가 결정되어 있습니다. 따라서 예비번호 7번으로 등록하셨다면, 충원 과정에서 선발될 가능성이 있습니다.
+충원 과정은 다음과 같습니다:
+1. 2024년 2월 14일(수) ~ 20일(화)까지 3차 충원 합격자 발표 및 등록이 진행됩니다.
+2. 이 기간 동안 합격 여부를 확인해야 합니다.
+3. 만약 7번 예비번호가 선발되면, 지정된 등록기간 내에 등록금을 납부해야 합니다.
+주의사항:
+- 충원 과정에서 전화 연락 두절로 인해 통보받지 못한 경우 등록 의사가 없는 것으로 간주될 수 있으므로, 이 기간 동안 꾸준히 확인해야 합니다.
+- 지정된 등록기간 내에 등록금을 납부하지 않으면 합격 취소됩니다.
+따라서 예비번호 7번으로 등록하셨다면, 충원 과정에서 선발될 가능성이 있으나 확실한 것은 아닙니다. 이 기간 동안 꾸준히 확인하고 지시사항을 따르는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023년도 최종 합격자들의 수능 성적을 언급하고 있지만, 제공된 원문에서는 2023년도 성적에 대한 정보가 없고, 평균 등급이 다르게 제시되어 있습니다. 또한, 수능 4개 영역 등급 평균이 4.98로 잘못 기재되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보(예: 영어 등급 평균과 수능 4개 영역 등급 평균)를 포함하고 있어 일관성이 부족합니다. 원문에서 언급된 합격 가능성에 대한 정보는 포함되어 있지만, 다른 수치와의 불일치로 인해 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 질문한 내용과 관련된 정보를 제공하고 있으며, 지원자의 성적과 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 정보는 원문과 관련이 적거나 불필요한 세부사항이 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 다르게 수치를 제시하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 불일치가 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 주제와 관련이 있지만, 제공된 정보의 정확성과 일관성 부족으로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 세부사항이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6302408070746849</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 수능 최종합격 점수를 확인해보겠습니다. 
+게임공학과는 정시 모집군 C군에 해당하며, 2023년도 최종 합격자들의 수능 성적을 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 평균: 415.80
+- 영어 등급 평균: 3.20
+- 수능 4개 영역 등급 평균: 4.98
+당신의 예상 수능 성적은 국어 + 수학 + 탐구(2개) 표준 변환 점수 415.80을 약간 밑돌 것 같습니다.
+하지만, 동의대학교는 수능 점수 외에도 서류 평가와 면접 평가를 통해 학생들을 심사하기 때문에, 다음과 같은 요인들이 고려될 수 있습니다:
+1. **서류 평가**: 창의적 체험활동, 진로 탐색 활동 등이 잘 기재되어 있다면 이 부분에서 높은 점수를 받을 가능성이 있습니다.
+2. **면접 성적**: 면접에서도 학업역량과 전공적합성을 잘 보여주면 좋은 평가를 받을 수 있습니다.
+3. **경쟁률**: 2024년의 정확한 경쟁률은 아직 공개되지 않았지만, 이전 연도와 비슷할 것으로 예상됩니다.
+따라서, 당신의 예상 점수로는 약간 밑돌기는 하지만 추가 합격 가능성은 있습니다. 
+추가적으로 몇 번 정도 받을 수 있을지는 정확히 예측하기 어렵습니다. 경쟁률과 서류/면접 평가 결과에 따라 달라질 수 있습니다.
+결론적으로, 지원해보시는 것이 좋겠습니다. 준비를 철저하게 하여 최선의 결과를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보가 부족하다고 언급하고 있으며, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 원본 텍스트는 3.75의 성적이 평균보다 높다고 명시하고 있으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 일치하지 않는 부분이 있습니다. 특히, 최저 성적 기준에 대한 언급이 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 지원 조건과 성적 기준에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정보가 부족하고, 원본 텍스트의 사실과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 지원 조건에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.593513277898203</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 경영정보학과에 지원하려면, 지원자의 성적이 합격 기준을 충족해야 합니다.
+현재 제공된 정보만으로는 경영정보학과의 정확한 최저성적 기준이 명시되어 있지 않습니다. 하지만 일반적으로 경영정보학과와 같은 전공은 국어, 수학, 영어 등 주요 과목의 성적이 높아야 합니다.
+주요 점수를 고려해보면:
+- 국어: 90점 이상
+- 수학: 85점 이상 (특히 통계와 확률 부분)
+- 영어: 70점 이상
+성적 3.75는 대체로 좋은 성적입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는:
+1. 경영정보학과의 최저성적 기준을 확인해야 합니다.
+2. 해당 전공의 수능최저기준도 고려해야 합니다.
+만약 경영정보학과의 최저성적 기준이 3.5 이상이라면, 성적 3.75는 충분히 경쟁력이 있을 것입니다. 하지만 만약 더 높은 기준을 요구한다면, 조금 더 높은 점수를 목표로 설정해야 할 수 있습니다.
+추가적으로, 학교생활기록부와 면접 등 다른 평가 요소도 고려되어야 하므로, 전반적인 지원 자격을 판단하기 위해서는 전체 지원 자료를 종합적으로 검토하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 구체적인 정보를 제공하지 않고, 대신 일반적인 입학 기준에 대한 논의로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 입학 가능성에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 일반적인 분석을 제공하지만, 원본 텍스트의 핵심 내용인 경영정보학과의 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 그러나 각 요소는 독립적으로 이해할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경영정보학과의 입학 가능성에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련된 정보가 부족합니다. 그러나 일부 일반적인 정보는 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5305075619067533</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的信息，我将从以下几个方面进行分析：
+1. **招生政策**：需要了解东国大学（假设是该大学）对于不同专业的录取标准和要求。
+2. **成绩要求**：特别是针对经管信息学部的最低入学分数或排名。
+通常情况下，如果您的成绩为4.2，在韩国高考中属于较好的成绩。但是具体是否能够被经管信息学部录取还需要参考以下几点：
+1. **专业招生人数**：该专业的招生名额是多少。
+2. **竞争情况**：其他申请者的成绩分布如何。
+3. **学校的具体要求**：东国大学对于经管信息学部的最低入学分数或排名是否有具体规定。
+假设东国大学对经管信息学部的要求是：
+- 最低录取分数线为4.0
+- 且需要满足一定的综合评价标准
+那么，您的成绩4.2应该是符合基本要求的。但是最终能否被录取还需要看具体的竞争情况和其他申请者的整体表现。
+建议您查看东国大学官方网站上的具体招生信息或直接联系学校的招生办公室以获取最准确的信息。如果可以的话，请提供更详细的信息以便进行更精确的判断。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트는 경영정보학과의 평균 등급과 합격 가능성에 대한 정보를 제공하지만, 생성된 응답은 다른 통계와 정보를 제시하고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 특정한 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 다른 주제에 대해 논의하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정 학과의 합격 가능성에 대한 질문에 대한 답변을 요구하지만, 생성된 응답은 전혀 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 유창성 평가가 어렵습니다. 그러나 문장 구조는 비교적 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원본 텍스트와의 연결이 없기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 성적과 관련된 정보는 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와 관련이 없습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 다른 언어로 작성되어 있어 이해하기 어려운 부분이 있지만, 문장 자체는 비교적 명확하게 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 없기 때문에 이해하기 어려운 측면이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5249855388279321</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年的招生计划人数。
+2. 报名该专业的考生的平均成绩和标准差等统计数据。
+3. 您的成绩（国语+数学+两门选修课总分5.33）在这些数据中的排名情况。
+根据提供的表格，我们可以看到：
+- 经营信息学部2024年计划招生9人。
+- 报名该专业的考生平均分为434.13，标准差为7.46。
+- 有33名考生竞争这9个名额。
+您的成绩是426.86（国语+数学+两门选修课总分5.33），这个分数略低于平均分。但是，由于竞争非常激烈（33:9的比例），仅凭这一点无法确定您是否能够被录取。
+建议：
+1. 仔细检查您的成绩是否有误。
+2. 参考其他考生的成绩分布情况。
+3. 考虑是否还有其他专业可以申请。
+最终能否被录取还需要看具体的招生委员会的决定。建议密切关注学校官网发布的最新信息，并保持与学校的沟通。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 지원자의 성적이 3.33일 경우 최초 등록자로 선발될 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 3.33의 성적이 평균보다 높아 합격 가능성이 있다고 명시하고 있습니다. 이로 인해 사실관계에서 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 주장을 하고 있습니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 하지만, 생성된 응답은 낮다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보와 지원자의 성적에 대한 분석을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3.33의 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성에서 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 점수를 낮추었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7381287636710397</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학과의 경우, 지원자의 성적이 3.33이라면 최초 등록자로 선발될 가능성은 매우 낮습니다.
+바이오응용공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 40명
+2. **지원 인원**: 238명 (최종등록자 표에서 확인 가능)
+3. **경쟁률**: 약 5.97:1 (최종등록자 표에서 확인 가능)
+**최초 등록자의 성적 분포**:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 385.58
+- 영어 등급 평균: 4.74
+이러한 정보를 바탕으로, 성적이 3.33인 지원자는 경쟁률이 매우 높은 상황에서 최초 등록자로 선발될 확률이 낮습니다.
+**추천 사항**:
+1. **성적 향상**: 추가 학습을 통해 성적을 향상시키는 것이 중요합니다.
+2. **서류 및 면접 준비**: 서류 평가와 면접에서도 좋은 점수를 받기 위해 충분히 준비해야 합니다.
+3. **다양한 대안 고려**: 다른 학교나 전형을 고려해 보는 것도 좋습니다.
+최종 결정은 입학사정관의 심사를 통해 이루어지므로, 지원자의 개인적인 노력과 서류, 면접 성적 등 다양한 요소가 종합적으로 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 전형 요소와 모집 요건에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 수능 등급 평균과 비교하여 합격 가능성에 대한 명확한 언급이 부족합니다. 따라서 일부 사실이 누락되었고, 원본의 핵심 정보를 완전히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 전형 요소에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 수능 등급 평균과의 관계를 명확히 설명하지 않아 일관성이 떨어집니다. 수능 등급이 4.4라는 점은 언급되었으나, 그에 대한 합격 가능성에 대한 명확한 연결이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 방법에 대한 내용을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 수능 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높게 평가할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구조화되어 있으며, 각 요소가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 전형 요소에 대한 정보를 제공하지만, 원본 텍스트의 수능 등급 평균과의 관계를 명확히 반영하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 유창성과 관련성은 높지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 중간으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 내용을 적절하게 전달하고 있으나, 원본 텍스트의 핵심 내용과의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5851124318213418</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 주로 &lt;나&gt;군 실기/실적 위주 전형으로 모집되며, 수능 성적이 아닌 실기 점수와 학생부 교과성적 등이 반영됩니다. 따라서 단순히 수능 등급만으로 방사선학과에 지원할 수 있는지 판단하기는 어렵습니다.
+방사선학과의 전형요소 및 모집요건을 확인해야 합니다:
+1. **전형 요소**: 실기 점수, 학생부 교과성적, 면접 등이 반영됩니다.
+2. **모집인원 및 지원 인원**: 각 모집단위별로 모집인원과 지원 인원이 다르므로 경쟁률을 확인해야 합니다.
+3. **실기 점수**: 방사선학과는 실기 점수가 중요하므로, 해당 과목의 실기 점수를 잘 준비해야 합니다.
+현재 수능 등급 4.4로 추정되는 성적은 일반적으로 &lt;나&gt;군 모집단위에서 좋은 성적일 것입니다. 하지만 방사선학과는 실기 점수가 중요하므로, 실기 점수와 학생부 교과성적 등을 잘 준비해야 합니다.
+추천 사항:
+1. **실기 준비**: 방사선학과의 실기 과목을 꼼꼼히 준비하세요.
+2. **학생부 교과성적**: 수능 성적이 좋은 만큼, 학생부 교과성적도 높이 유지해야 합니다.
+3. **면접 준비**: 면접에서도 좋은 평가를 받기 위해 준비해보세요.
+모집요강을 확인하고, 방사선학과의 전형 요소와 모집인원 등을 정확히 파악한 후에 지원 계획을 세우는 것이 좋습니다. 추가로 궁금하신 점이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 2.66의 정시 등급이 평균보다 높다는 점을 잘못 해석하고 있습니다. 또한, 평균 점수와 관련된 정보가 원본 텍스트와 일치하지 않으며, 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.66이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 2.66의 정시 등급에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 2.66의 정시 등급에 대한 결론이 원본 텍스트와 일치하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 2.66의 정시 등급에 대한 해석이 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 2.66의 정시 등급에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.634916817896193</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 방사선학과의 모집인원은 5명이며, 지원 인원이 36명으로 경쟁률이 높습니다. 평균 경쟁률은 7.20입니다.
+방사선학과의 수능 최종 등록자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이고, 표준 편차는 5.40입니다.
+이러한 정보를 바탕으로 볼 때:
+- 평균 경쟁률이 7.20이며, 지원 인원이 많습니다.
+- 수능 최종 등록자의 평균 점수가 높은 편입니다 (338.76).
+따라서 2.66의 표준 변환 점수는 약 294점 정도로 추정됩니다. 이 점수는 평균보다 낮습니다.
+결론적으로, 2.66은 경쟁률이 높고 평균 점수가 높은 방사선학과에서는 좀 위험할 수 있습니다. 그러나 입학전형의 다양한 요소들이 고려되므로, 다른 평가 항목들 (면접, 서류 등)에서 우수한 성적을 보여주면 가능성을 높일 수 있습니다.
+추천: 
+- 면접 준비에 만전을 기하세요.
+- 학교생활기록부와 자기소개서 등을 잘 준비해보세요.
+- 다른 전형 (예: 실기/실적 위주 전형)도 고려해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 GPA가 낮지 않다고 언급하고 있지만, 원본 텍스트에서는 3.66이 평균보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에서 일부 불일치가 발생합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, GPA에 대한 해석이 상반되어 일관성이 떨어집니다. 원본 텍스트는 긍정적인 요소를 강조하는 반면, 생성된 응답은 부정적인 시각을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 여러 요소를 다루고 있지만, 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 긍정적인 전망을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 GPA에 대한 해석에서 정확성이 떨어지며, 원본 텍스트의 정보와 상충하는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절한 요소를 포함하고 있습니다. 그러나 원본 텍스트의 긍정적인 메시지를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하여 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5667153372662254</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 높지 않은 점수로, 경쟁률과 모집인원에 따라 합격 가능성은 낮을 수 있습니다. 그러나 다음과 같은 요소들을 고려하면 좀 더 정확한 판단이 가능합니다:
+1. **전형 특성**: 농어촌 전형은 일반적으로 지역 거주 경력이나 농어촌 배경을 중요하게 평가하므로, 이 부분에 강점을 가진다면 유리할 수 있습니다.
+2. **면접 및 서류평가**: 면접과 서류평가에서 좋은 성적을 받는 것이 합격 가능성에 큰 영향을 미칩니다. 특히, 농어촌 배경이나 관련 경험을 잘 설명하고 증빙할 수 있다면 이점이 있습니다.
+3. **모집인원 및 경쟁률**: 모집인원과 실제 지원자의 수에 따라 경쟁률이 결정되므로, 해당 전공의 최종 합격자 명단을 확인해보세요.
+4. **기타 요소**: 학교생활기록부에서 보여주는 성실성, 열정, 그리고 관련 활동 경험 등도 중요한 평가 기준입니다.
+5. **전형요소 반영비율**: 농어촌 전형은 주로 학생부 교과성적(70%)과 면접(30%)으로 구성되므로, 이 비율을 고려하여 자신의 성적이 어느 정도에 해당하는지 확인해보세요.
+6. **추천서 및 특별한 경력**: 추천서나 특별한 경험 등이 있다면 이를 잘 활용할 수 있습니다.
+결론적으로 3.66의 GPA로는 낮은 합격 확률을 가질 수 있지만, 농어촌 배경과 관련 활동 등을 잘 준비한다면 기회를 잡을 수 있을 것입니다. 지원서 작성 시 이러한 요소들을 강조하고 증빙 자료를 첨부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 상황에 대한 가능성을 언급하고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 또한, 예비 후보자 중에서 선발되는 경우가 적다는 점은 사실이지만, 원문에서는 특정 학과에 대한 합격 가능성을 강조하고 있습니다. 따라서 일부 사실은 반영되었으나, 중요한 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 상황에 대한 일반적인 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 정보와는 일치하지 않습니다. 원문은 특정 학과에 대한 합격 가능성을 명확히 하고 있으나, 생성된 응답은 그에 대한 언급이 없어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 상황에 대한 일반적인 조언을 제공하고 있어 관련성이 높습니다. 그러나 원문에서 제시된 특정 학과에 대한 정보와는 직접적으로 연결되지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 상황에 대한 일반적인 사실을 반영하고 있지만, 원문에서 제공된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 연결성 및 특정 세부사항의 누락으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 상황에 대한 적절한 의미를 전달하고 있으나, 원문에서의 특정 학과에 대한 언급이 없기 때문에 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 조언을 제공합니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4692543458840819</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 대부분의 경우, 예비후보자 중에서 선발하는 경우는 상당히 적습니다. 하지만 여전히 작은 가능성은 있습니다:
+1. 다른 지원자가 등록 포기하거나 합격 취소될 가능성이 있습니다.
+2. 모집인원이 늘어난다면 예비 후보들 중 일부가 추가로 선발될 수 있습니다.
+하지만 이런 경우는 매우 드물며, 대부분의 예비후보들은 불합격하게 됩니다. 확실한 것은 1위부터 24위까지 지원자가 모두 합격했거나 등록을 완료했다는 것입니다.
+이런 상황에서는 다음과 같은 조치를 취할 수 있습니다:
+- 다른 대학이나 전형에 지원하여 보다 안전한 입학을 준비하세요.
+- 학교생활과 성적, 활동 등을 더욱 향상시켜 다음 해에는 더 좋은 결과를 얻으려 노력하세요.
+결국, 현재 상황에서는 최선의 방법은 다른 대안을 찾는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서 법경찰행정학부는 존재하지 않는다고 명시되어 있습니다. 또한, 제공된 성적 기준에 대한 정보가 잘못 해석되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 법경찰행정학부에 대한 정보와 성적 기준이 서로 상충합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 법경찰행정학부에 대한 정보가 없다는 점에서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 각 요소 간의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 성적 기준에 대한 설명이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7213991466693489</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 법경찰행정학부의 정시 모집에 대한 자세한 학업성적 기준을 확인하기 어렵습니다. 하지만 일반적으로 대학별 정시모집에서 안정적인 합격을 위해서는 다음과 같은 점수대를 목표로 설정하는 것이 좋습니다:
+1. **평균 성적**: 
+   - **안정권**: 수능 4개 영역(국어, 수학, 영어, 탐구)의 평균 표준점수가 80점 이상이고, 특히 국어와 수학에서 높은 점수를 받는 것이 중요합니다. 
+   - **문 닫고 들어갈 수 있는 수준**: 평균 표준점수가 90점 이상이면 안정적으로 합격할 가능성이 큽니다.
+2. **영어 등급**:
+   - 영어 등급은 최소 4등급 이상을 받는 것이 좋습니다. 특히 법경찰행정학부와 같은 사회과학 분야에서는 영어 능력도 중요하게 평가됩니다.
+3. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 이 값이 모집단위별 최저합격선을 크게 밑돌지 않도록 해야 합니다. 대략적으로는 200점 이상을 목표로 하면 안정적입니다.
+4. **경쟁률**:
+   - 동의대학교 법경찰행정학부의 경쟁률을 확인하여, 현재 모집인원에 비해 지원자가 얼마나 많은지 파악해야 합니다. 경쟁률이 높다면 더 높은 점수를 목표로 설정해야 합니다.
+5. **추천서나 면접 성적**:
+   - 법경찰행정학부는 종종 추천서나 면접에서 좋은 평가를 받는 것이 중요합니다. 따라서 학교생활기록부와 면접 준비도 철저히 해야 합니다.
+6. **추천 대학의 기준**:
+   - 동의대학교 법경찰행정학부의 정시 모집에 대한 최근 몇 년간의 합격자들의 성적을 참고하여, 평균적인 점수를 파악하는 것이 도움이 될 수 있습니다.
+위와 같은 요소들을 종합적으로 고려하여 목표 점수를 설정하고, 꾸준히 학업에 임해야 합니다. 또한, 동의대학교 입학 홈페이지나 총장실에서 제공하는 정시모집 안내 자료를 참고하시거나, 대학 관계자에게 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 모집요강과 합격자 성적 분석 자료 등을 확인하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 아동학과의 평균 등급과 관련된 정보를 포함하고 있으며, 5.33 등급이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, "수능 최저기준이 없다"는 정보는 정확하지 않을 수 있으며, 이는 학교의 정책에 따라 다를 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 그러나 "수능 최저기준이 없다"는 부분은 원본 텍스트에서 명시된 내용과 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 정시 등급에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답의 대부분은 정확하지만, 수능 최저기준에 대한 정보가 다소 불확실하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6392415817396641</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과에 지원하시려면, 해당 학과의 정시모집군과 모집단위를 확인해야 합니다. 보육가정상담학과는 아동학과로 분류되므로, 일반적으로 가군 수능(일반학생전형)으로 모집됩니다.
+가군 수능(일반학생전형)의 경우, 학생부교과와 수능 성적이 주요 평가 요소입니다. 동등한 지원자들과 비교하여 5.33 등급을 가진 지원자의 수능 점수가 어느 정도인지 확인해야 합니다.
+1. **수능 성적**: 
+   - 5.33 등급은 영어 등급 중 상당히 높은 점수입니다.
+   - 동의대학교는 수능 최저기준이 없으므로, 이 점수만으로도 충분한 가능성이 있습니다.
+2. **학생부교과 성적**:
+   - 학생부교과 성적이 중요합니다. 5.33 등급을 가진 지원자는 영어 교과에서 높은 성적을 보여주고 있을 것입니다.
+   - 다른 과목에서도 좋은 성적을 유지해야 합니다.
+3. **합격 가능성**:
+   - 수능 최저기준이 없으므로, 5.33 등급의 지원자가 합격할 가능성이 있습니다.
+   - 그러나 경쟁률과 지원자의 전체 성적이 중요합니다. 다른 지원자들의 평균 점수와 비교하여 판단해야 합니다.
+4. **추천**:
+   - 수능 성적을 확인하고, 학생부교과 성적도 꼼꼼히 준비하세요.
+   - 전형요소 반영비율을 고려하여 전체적인 경쟁력을 평가해보세요.
+   - 동의대학교 입학 홈페이지나 총장실에서 제공하는 정보를 참고하시고, 필요하다면 학교 관계자에게 문의하시는 것이 좋습니다.
+따라서 5.33 등급만으로는 확실한 합격을 보장할 수 없습니다. 그러나 좋은 성적을 가지고 있으므로 충분히 가능성을 가지고 지원해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 여러 요인을 언급하고 있으며, 예비 번호에 대한 긍정적인 신호를 제시하고 있습니다. 그러나 일부 세부 사항은 원본 텍스트에 명시된 내용과 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 여러 요인을 설명하고 있지만, 일부 정보는 원본 텍스트와 일치하지 않거나 추가적인 세부 사항을 포함하고 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 예비 번호와 충원 합격 가능성에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 잘 설명하고 있습니다. 그러나 일부 부분에서 연결이 약할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 복잡한 문장은 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7039539474836782</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원합격자 발표와 등록이 여러 차례 이루어집니다. 예비 12번을 받은 것은 좋은 신호지만, 최종 합격 여부는 여러 요인에 따라 결정됩니다.
+주요 고려사항:
+1. **동점자 처리 기준**: 충원합격자 발표 시 동점자가 발생할 경우, 동점자 처리 기준이 적용됩니다. 예비 12번을 받았다면, 이 기준에 따라 순위가 결정될 수 있습니다.
+2. **최종 합격선**: 최저합격선이 공고되면, 이를 충족하는지 확인해야 합니다. 만약 최저합격선보다 높은 점수를 받았다면, 합격 가능성은 높아집니다.
+3. **모집인원 감축**: 동점자가 발생할 경우, 모집인원을 초과한 인원만큼 차차년도 모집에서 감축하여 모집합니다. 이 점을 고려해야 합니다.
+4. **면접 및 서류 평가**: 일부 전형에서는 면접이나 서류평가 결과가 합격 여부에 영향을 미칠 수 있으므로, 이 부분에서도 좋은 성적을 받았다면 유리할 수 있습니다.
+5. **기타 요인**: 지원자의 개인적인 특성, 동점자 처리 기준 등 다양한 요인이 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 최종 합격 여부는 충원합격자 발표와 등록 과정에서 결정됩니다. 최종 결과를 확인하기 위해서는 공식 홈페이지를 통해 합격자 발표일에 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원하기 위한 성적 요건에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적(4.18)과 관련된 정보가 누락되어 있습니다. 또한, 수능 성적의 중요성에 대한 언급이 있지만, 구체적인 수치와 비교가 부족하여 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제시된 평균 성적과의 일관성이 부족합니다. 특히, 4.75의 성적이 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고, 다른 과목의 성적 요건을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 질문에 관련된 정보를 제공하고 있으며, 수능 성적과 전형 요소에 대한 설명이 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 유아교육학과에 대한 구체적인 성적 요건과 관련된 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원하기 위한 성적 요건에 대한 정보를 제공하지만, 원본 텍스트의 평균 성적과 비교할 때 정확성이 떨어집니다. 특히, 4.75의 성적이 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 비교에서 일부 정보가 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 질문에 적절하게 반응하고 있으며, 의미적으로 일관성이 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6952974077315913</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75의 등급점수를 얻으려면 수능 국어, 수학(미적분 또는 기하), 영어에서 각각 높은 점수를 받아야 합니다. 일반고나 자율고 졸업생의 경우, 다음과 같은 성적이 필요할 것입니다:
+- 국어: 90점 이상 (등급 4)
+- 수학(미적분 또는 기하): 85점 이상 (등급 4)
+- 영어: 123점 이상 (등급 4)
+유아교육학과의 경우, 일반적으로 다음과 같은 요소들이 고려됩니다:
+1. **수능 성적**: 유아교육학과는 대체로 수능 성적이 중요한 요인입니다. 특히 국어와 사회탐구 영역이 중요합니다.
+2. **전형요소 반영비율**: 일부 학과에서는 면접, 서류 등 다른 전형요소도 고려할 수 있습니다.
+4.75의 등급점수를 얻는 것은 가능하지만, 유아교육학과에 지원하는 경우 다음과 같은 점을 주의해야 합니다:
+- **국어와 사회탐구 영역**: 이 두 영역에서 높은 성적을 받아야 합니다.
+- **전형요소**: 면접이나 서류평가 등 다른 전형요소에서도 좋은 평가를 받는 것이 중요합니다.
+따라서, 4.75의 등급점수로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높을 수 있으므로 추가적인 준비와 노력이 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 수능 최저기준이 없다고 언급하고 있지만, 원문에서는 수능 4개 영역 등급 평균이 7.08이라는 정보가 제공되고 있습니다. 이로 인해 4.16 등급이 평균보다 높은 성적이라는 점은 맞지만, 수능 최저기준에 대한 정보가 원문에 명시되어 있지 않기 때문에 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 수능 최저기준이 없다는 주장은 원문에서 확인할 수 없는 정보입니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 제기된 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 일부 내용은 원문과 직접적으로 관련이 없는 추가적인 정보가 포함되어 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중간에 중국어가 포함되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 중국어 부분이 포함되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 최저기준에 대한 언급이 원문과 일치하지 않기 때문에 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 중국어가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 중국어 부분이 포함되어 있어 일부 사용자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5354175095351366</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)는 가군 수능(일반학생전형)에 해당합니다. 이 전형은 수능 성적만을 기준으로 하며, 학생부 교과성적이 반영되지 않습니다.
+보육가정상담학과의 경우 수능 최저기준이 없으므로, 4.16등급을 가진 지원자는理论上，你的高考成绩为4.16等，如果符合该专业的录取标准，你有可能被录取。但是具体是否能够被录取还需要参考以下几点：
+1. **学校的具体录取分数线**：你需要查看2024年东义大学保育家庭咨询学（儿童学）专业在你所在省份的最低录取分数线是多少。
+2. **你的成绩排名**：虽然没有明确的最低分数要求，但学校的实际录取情况可能会根据当年考生的整体水平有所不同。如果该专业的竞争非常激烈，即使达到4.16等也可能无法被录取。
+3. **其他因素**：有些专业可能还会考虑一些额外的因素，如面试表现、特长等，尽管在你提供的信息中没有提到这些因素。
+建议你可以参考以下步骤来进一步确认：
+- 查看东义大学2024年保育家庭咨询学（儿童学）专业的具体录取分数线。
+- 了解该专业的实际录取情况和往年数据。
+- 如果有可能的话，可以联系学校的招生办公室获取更详细的信息。
+希望这些信息对你有所帮助！</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 정보를 제공합니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원을 위한 조건을 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문이 정시 지원이 불가능하다고 말하는 반면, 생성된 응답은 정시 지원을 위한 조건을 제시하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문이 정시 지원 불가능성을 언급하는데 반해, 생성된 응답은 정시 지원을 위한 조건을 설명하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 부적절하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 정시 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 전혀 맞지 않습니다. 정시 지원이 불가능하다는 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4792354240233165</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어융합학과를 정시로 지원하려면, 다음과 같은 점수와 학업역량을 갖추어야 합니다:
+1. **평균 등급**:
+   - 전반적으로 평균 3등급 이상은 필요합니다.
+   - 특히 수학과 영어는 높은 등급이 중요하며, 국어와 사회 과목도 꾸준한 성적을 보여야 합니다.
+2. **전형요소**:
+   - 소프트웨어융합학과는 실기/실적 위주 전형으로 분류되며, 학생부교과 70% + 면접 30%로 구성됩니다.
+   - 이에 따라 학생부 교과성적이 중요하며, 특히 과학 관련 과목에서 높은 성적을 보여야 합니다.
+3. **수능 점수**:
+   - 수능 최저 기준이 없으므로, 개인의 실력에 따라 다양한 점수를 받을 수 있습니다.
+   - 평균적으로 국어 + 수학 + 탐구(2개)의 표준 변환점수 합은 400점 이상이 필요할 것으로 예상됩니다.
+4. **면접 및 서류**:
+   - 면접에서는 프로그래밍 능력과 관련된 경험, 그리고 소프트웨어 분야에 대한 열정을 잘 보여줘야 합니다.
+   - 서류 평가는 학생부 교과성적과 활동 경력을 종합적으로 판단합니다.
+따라서, 정확한 등급은 지원자의 개인적인 성적과 경험에 따라 달라질 수 있지만, 대략적으로 3등급 이상의 평균 점수와 꾸준히 높은 과목 성적이 필요할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 면접 점수와 서류 평가의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 면접과 서류 평가의 중요성을 설명하고 있습니다. 다만, 원문에서 명시된 평가 요소 중 하나인 "학생부 교과성적"에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 소프트웨어융합학과의 평가 방식에 대한 구체적인 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 따라서 일관성 점수는 5로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 설명이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 누락으로 인해 완벽하지 않으므로 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.6403645148138374</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특(서류평가)의 중요도**:
+   - 일반적으로, 면접과 서류 평가는 각각 중요한 역할을 합니다.
+   - 면접에서는 지원자의 입학 후 적합성을 판단하기 위해 실시간으로 대화를 통해 평가합니다.
+   - 세특(서류평가)는 지원자가 제공한 서류들을 바탕으로 평가되며, 이는 지원자의 학업역량, 전공적합성 등을 종합적으로 판단하는 데 중요한 역할을 합니다.
+2. **소프트웨어융합학과의 경우**:
+   - 소프트웨어융합학과에서는 면접 점수와 세특 내용 모두 중요하게 평가합니다.
+   - 특히, 이 학과는 기술적 능력뿐만 아니라 창의성, 협업능력 등 다양한 역량을 요구하기 때문에 서류에서 이러한 부분들을 잘 보여주는 것이 중요합니다.
+3. **서류 준비**:
+   - **학교생활기록부**: 정확하고 객관적인 내용으로 작성되어야 합니다.
+   - **창의적 체험활동 및 동아리 활동**: 지원자가 참여한 활동과 그 결과를 구체적으로 기재해야 합니다.
+   - **진로 탐색 활동**: 지원자가 어떤 진로를 향해 노력했는지, 이를 통해 얻은 성장과정을 설명해야 합니다.
+4. **추천서나 추천인**:
+   - 가능하다면 교사 또는 관련 전문가의 추천서도 준비할 수 있습니다.
+   - 이는 지원자의 학업역량과 전공적합성을 더 객관적으로 평가하는 데 도움이 됩니다.
+5. **주의사항**:
+   - 서류 작성 시 과장하거나 허위 정보를 기재하지 않도록 주의해야 합니다.
+   - 실제 경험과 노력에 근거한 내용을 기재해야 합니다.
+따라서, 소프트웨어융합학과에서는 면접 점수와 세특 내용 모두 중요하게 평가하므로, 서류 준비는 충분히 신경 써야 합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 수능 최초합격자의 평균 성적에 대한 정보와 관련이 없으며, 잘못된 정보(예: 평균 표준화 변환 점수 330.11, 표준 편차 9.08 등)를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트는 4.12의 평균 성적에 대한 내용을 다루고 있지만, 생성된 응답은 다른 기준을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성이나 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5917336175152335</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 同意大学软件工程学部2024年招生计划中的录取标准。
+2. 您提供的成绩（国语+数学+选修两科的标准化转换分数总和为4.08）是否符合该专业的最低录取分数线。
+从给定的数据中，我们可以看到：
+- 同意大学软件工程学部在2024年的招生计划中有30个名额。
+- 支持软件工程学部的最终注册者表显示，平均标准化转换分数为330.11（标准差为9.08）。
+根据这些信息，您的成绩（国语+数学+选修两科的标准化转换分数总和为4.08）似乎低于该专业的平均录取分数线。因此，仅凭这个成绩，您可能不太可能被同意大学软件工程学部的第一轮录取。
+但是请注意，最终录取结果还取决于其他因素，如英语等级、各科目等级等。此外，如果您的综合能力很强，或者有特殊的特长或经历，也有可能获得破格录取的机会。
+建议您查看具体的招生简章和详细的成绩要求，并考虑是否还有其他申请途径可以尝试。如果有疑问，可以直接访问同意大学的官方网站（http://ipsi.deu.ac.kr）获取更详细的信息或联系学校咨询办公室以获得准确的答案。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 잘못된 정보(소프ysics융합학과)와 함께 다른 전형 요소에 대한 설명을 포함하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 다른 학과에 대한 정보를 제공하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 소프트웨어융합학과의 합격 등급 정보에 대한 질문에 대한 답변을 제공하지 않으며, 생성된 응답은 다른 학과에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 불필요한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 주제에 대한 명확한 이해를 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보(소프ysics융합학과)와 함께 다른 전형 요소에 대한 설명을 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보와 함께 다른 주제를 다루고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 부분이 있지만, 정보의 일관성이 부족하여 전체적인 이해를 방해합니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.4886972000776486</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프ysics융합학과의 경우, 전형요소 반영비율을 살펴보면 실기/실적 위주전형이며, 학생부교과(출결포함)가 30%, 실적이 70%를 차지합니다.
+학생부 교과성적 반영방법은 다음과 같습니다:
+- 전 모집단위(한의예과 제외): 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목
+- 한의예과: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+5등급은 일반적으로 성적 등급에서 중간 정도를 나타내며, 학생부 교과성적이 전체 평균보다 낮을 수는 있지만, 실기나 면접 등의 다른 요소가 높다면 가능성이 있습니다.
+하지만 5등급으로만 입학하기 위해서는 다음과 같은 조건들을 충족시켜야 합니다:
+1. 실기 점수가 매우 높아야 합니다 (70% 반영).
+2. 면접이나 서류 평가에서 우수한 성적을 받아야 합니다.
+3. 학생부 교과성적이 전체적으로 중간 이상의 수준이어야 합니다.
+따라서, 단순히 5등급만으로는 낮은 확률로 입학할 수 있습니다. 실기 점수와 면접 등 다른 평가 요소들이 높아야 하는데, 이 부분에 대한 자세한 정보를 가지고 있다면 더 정확한 판단이 가능합니다.
+추가적으로, 동의대학교에서는 학생부 교과성적을 반영하는 과목 수와 성적이 중요하므로, 5등급으로서도 특정 과목에서 높은 등급을 받는 것이 유리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적과 경쟁률에 대한 잘못된 정보를 포함하고 있습니다. 예를 들어, "신소재공학과의 성적 평균은 286.97"이라는 정보는 원본 텍스트에 명시된 내용과 일치하지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 성적 평균과 등급 평균에 대한 언급이 원본 텍스트와 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 신소재공학과에 지원하는 것에 대한 가능성을 논의하고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 부정확합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 일부 정보가 원본 텍스트와 일치하지 않아 전체적인 일관성이 떨어집니다. 특히, 성적 평균과 관련된 부분에서 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트의 사실과 다릅니다. 특히 성적 평균과 관련된 수치가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다. 전반적으로 신뢰할 수 있는 정보로 평가하기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 전체적인 맥락이 흐트러질 수 있습니다. 원본 텍스트의 의도와는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있는 부분이 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6069364234617176</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 입학은 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **모집인원**: 신소재공학과는 모집인원이 56명으로 많은 학생들이 경쟁하고 있습니다.
+2. **경쟁률**: 해당 표에서 신소재공학과의 경쟁률은 1.45로 보입니다. 이는 지원자 수가 모집인원보다 약간 더 많다는 것을 의미합니다.
+3. **성적 평균**: 표에 나와 있는 신소재공학과의 성적 평균은 286.97입니다. 이 점수는 4.28보다 높습니다.
+4. **등급 평균**: 표에서 등급 평균이 5.06으로 보이며, 이 역시 4.28보다 높습니다.
+따라서, 성적이 4.28인 경우 동의대학교 신소재공학과에 입학하기 위해서는 다음과 같은 조건을 충족시켜야 합니다:
+- **성적 향상**: 더 좋은 성적을 얻어야 합니다.
+- **추천서 및 자기소개서 등 서류 준비**: 이 부분에서 높은 점수를 받을 수 있도록 노력해야 합니다.
+- **면접 준비**: 면접에서도 좋은 평가를 받아야 합니다.
+결론적으로, 4.28의 성적만으로는 입학이 어렵지만, 다른 요소들을 잘 준비한다면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 주장을 일관되게 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6773181389782036</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 
+주요 내용을 요약하면:
+1. 수능 일반학생전형은 주로 수능 성적을 기준으로 합격자를 선발합니다.
+2. 일부 모집단위는 실기고사나 가산점 등을 반영하긴 하지만, 기본적으로 자기소개서는 필요하지 않습니다.
+3. 지원자는 수능 성적과 교과성적, 탐구 영역 성적을 잘 준비하고 제출하면 됩니다.
+4. 일부 모집단위에서는 면접평가를 실시할 수 있지만, 이 경우에도 자기소개서는 요구되지 않습니다.
+따라서 일반적으로 수능(일반학생전형)으로 지원하는 경우 자기소개서 작성은 필요하지 않으나, 각 모집단위의 특별한 요구사항을 확인하고 준비하는 것이 좋습니다. 만약 특정 모집단위에서 자기소개서를 요구한다면 해당 정보를 반드시 확인해야 합니다.
+자세한 내용은 동의대학교 입학처 홈페이지 또는 전형요강을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 평가하는 데 필요한 여러 요인을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 제시된 구체적인 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 가능성을 다루고 있습니다. 그러나 원본 텍스트에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 문장 구조를 가지고 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 추가 모집 가능성에 대한 정보를 정확하게 전달하고 있지만, 원본 텍스트의 구체적인 수치나 데이터는 포함되어 있지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성이 높습니다. 그러나 일부 정보 누락으로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 따라서 의미 적합성이 매우 높습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6744076453790605</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집 인원과 지원자 수**: 추가 모집 시의 모집 인원과 지원자의 수가 중요합니다.
+2. **수능 최저 점수 기준**: 각 학과별로 설정된 수능 최저 점수 기준을 확인해야 합니다.
+3. **전형 방식**: 정시 모집과 추가 모집에서 사용하는 전형 방식이 다를 수 있습니다. 예를 들어, 서류 평가나 면접 등이 포함될 수도 있습니다.
+4. **성적 순위**: 지원자의 성적이 전체 지원자 중 어느 위치에 있는지 확인해야 합니다.
+5. **기타 요인**: 학교별로 추가 모집 시 특정 기준을 설정할 수 있으므로, 해당 정보를 확인하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처와 연락하여 최신 정보와 자세한 안내를 받는 것을 추천드립니다. 정확한 가능성을 파악하기 위해서는 직접 학교에 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 모집 방식과 관련된 정보를 제공하고 있으며, 수능 등급에 대한 일반적인 조언을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 4개 영역 5.78)에 대한 직접적인 언급이 없으므로, 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 신소재공학과의 평균 등급에 대한 구체적인 정보가 누락되어 있어 일관성이 떨어집니다. 또한, B등급 이상을 받으면 큰 기회가 될 것이라는 주장은 원본 텍스트의 정보와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 신소재공학과의 입학 전형과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 잘 연결되어 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 완전히 반영하지 않아서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 입학 전형에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 평균 등급에 대한 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5906124427961118</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)는 &lt;나&gt;군 수능(일반학생전형)으로 모집됩니다. 
+이 전형의 경우, 정시모집군 &lt;나&gt;군의 경우 수능 4개 영역 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 성적을 산출합니다.
+따라서 신소재공학과에 지원하려면, &lt;나&gt;군 수능(일반학생전형)으로 지원하는 것이 적합하며, 이 경우 수능 등급이 높은 영역에서 좋은 점수를 받는 것이 중요합니다. 정확한 합격 가능 등급은 해당년도의 경쟁률과 모집인원 등을 고려해야 하지만, 일반적으로 &lt;나&gt;군에서는 B등급 이상을 받으면 큰 기회가 될 것입니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점을 언급하지 않고, 447점보다 약간 높은 점수에 대한 가능성을 논의하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 447점이 작년 평균 점수보다 높다는 점을 강조하지 않고, 오히려 가능성이 낮다고 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 평균 점수에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 447점이 작년 평균 점수보다 높다는 점을 간과하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다. 
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6716428429466929</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 가능성이 있지만 매우 낮습니다. 이유는 다음과 같습니다:
+1. **표준점수 변동성**: 표준점수는 매년 변동할 수 있으며, 작년과 올해의 평균 점수가 동일하지 않을 수 있습니다.
+2. **모집인원 및 지원자 수 변화**: 작년과 올해의 모집인원 또는 지원자 수가 달라질 수 있어, 이로 인한 경쟁률 변동이 있을 수 있습니다.
+3. **평가 기준 변경**: 입학사정관들이 평가하는 기준이나 방법이 매년 조금씩 바뀔 수 있으므로, 작년과 올해의 평균 점수가 동일하지 않을 가능성이 있습니다.
+4. **개별 학생 성적 변동**: 지원자들의 개인적인 성적이 변동될 수 있으며, 이로 인해 전체 평균이 달라질 수 있습니다.
+그러나 이러한 요인들이 모두 일치할 확률은 매우 낮습니다. 따라서 2024년에 신소재공학과의 최종 평균 점수가 작년보다 약간 높아지는 것은 가능하지만, 실제 발생 가능성은 매우 낮다고 볼 수 있습니다.
+결론적으로, 표준점수 447점으로는 작년보다 약간 높은 점수를 기대하기는 어렵지만, 최종 결과는 입학사정관들의 평가와 전체 지원자들의 성적 분포에 따라 결정되므로 확실한 예측은 어려울 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 성적 평균에 대한 정보가 일부 정확하지만, 4.3등급의 성적이 4.1~4.2로 예상된다는 부분은 다소 모호하고, 원문에서 제공된 평균 성적과의 비교가 명확하지 않다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 성적에 대한 해석이 다소 다르게 나타나며, 원문에서 언급된 평균 성적과의 비교가 명확하지 않다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 일부 세부사항이 원문과 일치하지 않거나 추가적인 정보가 포함되어 있어 약간의 관련성 저하가 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 원문과의 연결이 다소 약해 보인다. 전반적으로 일관성은 있지만, 일부 부분에서 흐름이 매끄럽지 않다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 성적 평균과 비교할 때 정확성이 떨어지며, 성적에 대한 해석이 다소 부정확하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 여러 차원에서 평균적인 성과를 보이나, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 대체로 일치하지만, 일부 세부사항에서 의미가 다소 왜곡되거나 모호하게 표현되어 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6469999830825232</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이 동의대학교에서 신소재공학부(신소재공학과, 고분자나노공학과)에 지원할 경우, 대략적인 성적 평균이 4.1~4.2 정도로 예상됩니다.
+다음은 신소재공학부 일반학생전형의 학생부 교과성적 반영방법을 참고하여 판단해보겠습니다:
+- **신소재공학과, 고분자나노공학과**:
+  - **반영과목**: 전 모집단위(한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+  - **성적 평균**: 4.3 등급으로 예상
+이러한 성적이면 대체로 합격 가능성이 있습니다만, 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 신소재공학부의 경쟁률은 매우 높습니다. 현재의 성적만으로는 확실한 합격을 보장할 수 없습니다.
+2. **전형요소**: 동의대학교에서는 학생부 교과성적이 주요하지만, 면접 등 다른 요소도 중요합니다. 전반적인 학업태도와 적합성을 평가받습니다.
+3. **추천서 및 기타 서류**: 추천서나 자기소개서 등의 서류가 좋은 점수를 받으면 도움이 될 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 결과를 얻어야 합니다. 전공에 대한 이해도와 진로계획 등을 잘 설명해야 합니다.
+결론적으로, 현재의 성적이 4.1~4.2 정도라면 합격 가능성은 있지만, 확실한 것은 아닙니다. 경쟁률이 매우 높기 때문에 최선을 다해 준비하고, 면접에서도 좋은 결과를 얻는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하여 가장 정확한 정보를 얻는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균이 4.33으로 잘못 기재되어 있으며, 원본 텍스트의 평균 4.13과 다릅니다. 또한, "최종합격자들의 성적"이라는 표현이 원본의 "최초합격자 성적"과 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 일부 세부사항에서 일관성이 부족합니다. 예를 들어, 영어 등급 평균이 다르게 제시되었고, "최종합격자"라는 표현이 원본의 "최초합격자"와 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 인공지능학과의 성적에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 일부 세부사항에서 일관성이 떨어져 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균과 같은 중요한 세부사항에서 오류가 있습니다. 따라서 정확성 점수는 중간 수준입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 약간의 문제가 있어 점수를 조정했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 세부사항에서 혼란을 줄 수 있는 요소가 있어 점수를 조정했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.6753174367985457</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종합격자들의 성적을 참고하겠습니다. 
+인공지능학과는 공과대학에 속해 있으며, 해당 학과의 최종합격자들의 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구 (가산점 포함) 표준변환점수 합: 415.80
+- 영어 등급 평균: 4.33
+- 수능 4개 영역 등급 평균: 4.98
+이러한 성적은 최종합격자들의 평균치를 나타내며, 실제 합격선은 경쟁률과 지원자의 성적이 변동될 수 있습니다.
+참고로, 동의대학교는 수능성적 반영 비율이 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수 
+- 영어 등급 점수
+- 탐구 표준점수
+따라서, 인공지능학과에 지원하려면 이들 성적을 잘 준비해야 합니다. 특히 수학과 탐구 영역은 가산점이 적용되므로 중요합니다.
+추가적으로, 동의대학교는 수능성적 외에도 면접 등 추가 평가를 실시하기 때문에, 전반적인 학업 역량도 고려되어야 합니다.
+최종합격자들의 성적이 실제 합격선을 정확히 반영하지는 않으므로, 최신 정보와 공지사항을 확인하시고, 자신의 성적과 경쟁률 등을 종합적으로 고려해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 지원 가능성을 언급하고 있지만, 구체적인 학과 목록을 제공하지 않고 일반적인 정보만을 제시하고 있습니다. 이는 원본 텍스트의 구체적인 학과 정보와 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 구체적인 학과 목록을 제공하지 않아서 일관성이 떨어집니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 정보에 그치고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 지원 가능성에 대해 논의하고 있으며, 이는 원본 텍스트의 주제와 관련이 있습니다. 그러나 구체적인 학과 정보를 제공하지 않아서 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 학과 정보와는 다소 차이가 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 잘 작성되었지만, 원본 텍스트의 구체적인 정보가 부족하여 다차원적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 구체적인 학과 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되었습니다. 독자가 쉽게 이해할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6500431640492088</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 표준점수를 가지고 정확히 어떤 학과에 지원할 수 있는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당하는 모집단위의 전형요소 반영비율을 확인해야 합니다.
+2. 지원하고자 하는 학과의 최저합격 기준을 알아야 합니다.
+일반적으로 동의대학교의 정시모집은 수능 성적에 크게 의존합니다. 5.27이라는 점수는 중간 정도의 성적이므로, 다음과 같은 학과들에 지원 가능성이 있을 것으로 보입니다:
+1. 인문사회과학대학의 일반적인 학과들 (법학과 등)
+2. 상경대학의 일부 학과들
+3. 공과대학의 일부 학과들
+하지만 정확한 판단을 위해서는 다음과 같은 정보를 확인해야 합니다:
+- 지원하고자 하는 모집단위의 전형요소 반영비율 (특히 수능 성적 비중)
+- 해당 모집단위의 최저합격 기준
+- 지원하는 학과의 특성
+만약 구체적인 모집단위와 학과를 알려주시면, 더 정확한 판단을 할 수 있을 것 같습니다. 또한, 동의대학교의 공식 홈페이지 (http://ipsi.deu.ac.kr)에서 최신 정보를 확인하시거나, 입학처에 문의하시는 것이 가장 정확할 것입니다.
+추가로, 수능 성적 외에도 지원자들의 학생부 교과성적, 면접 성적 등이 함께 평가되기 때문에, 단순히 수능 점수만으로는 최종 합격 여부를 판단하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수가 낮다고 언급하고 있지만, 원본 텍스트에서는 4.2가 소프트웨어공학부의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에서 일부 부정확성이 존재합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.2가 합격 가능성이 높다고 하지만, 생성된 응답에서는 4.2가 낮은 점수라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 여러 요소를 고려하고 있지만, 원본의 핵심 메시지인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 4.2라는 점수에 대한 해석이 원본과 다르기 때문에 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다소 다르게 해석되고 있으며, 4.2라는 점수에 대한 부정적인 해석이 원본의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본의 핵심 메시지와의 연결이 약해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5890362982276431</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 동의대학교의 정시 모집요강을 보면 상당히 낮은 점수입니다. 동의대학교 소프트웨어공학부의 경우, 전형요소 반영비율을 살펴보면 수능 위주로 진행되며, 수능 최저기준이 없습니다.
+다만, 정확한 가능성을 판단하기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **모집단위**: 소프트웨어공학부는 여러 모집단위로 나뉘어져 있을 수 있습니다. 각 모집단위별로 다른 전형요소 반영비율이 적용될 수 있으므로, 정확한 정보를 확인해야 합니다.
+2. **수능 최저기준**: 현재 표시된 내용에 따르면 수능 최저기준은 없습니다. 하지만 특정 모집단위에서는 최저 기준이 있을 수도 있습니다.
+3. **경쟁률**: 동의대학교 소프트웨어공학부의 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 4.2라는 점수로 합격하기는 어렵습니다.
+4. **학생부 및 면접 등 다른 전형요소**: 일부 모집단위에서는 학생부와 면접 등의 요소가 반영될 수 있으므로, 이 부분을 고려해야 합니다.
+5. **모집인원과 지원자 수**: 각 모집단위별로 모집인원과 지원자의 수를 확인하여 경쟁률을 파악하는 것이 중요합니다.
+따라서, 4.2라는 점수로 소프트웨어공학부에 합격할 가능성은 매우 낮습니다. 하지만 최저기준이 없거나 특정 모집단위에서는 가능성이 있을 수 있으므로, 정확한 정보를 확인하고 지원하는 것이 좋겠습니다.
+추가적으로, 동의대학교 입학 홈페이지나 전화로 상세 문의를 하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지 않고, 대신 다른 기준을 제시하고 있습니다. 원본 텍스트의 핵심 사실을 반영하지 않기 때문에 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 다른 기준을 제시하고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 입학 조건에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 관련성은 있지만, 직접적으로 원본 텍스트의 질문에 답하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원본 텍스트와의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다. 정보의 정확성과 일관성이 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 특정 맥락에서 의미가 있을 수 있지만, 원본 텍스트의 맥락과는 다소 다릅니다. 의미적으로 적절한 부분도 있지만, 전체적으로는 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있으며, 이해하기 어렵지 않습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.4938067036453687</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了判断是否符合东义大学化工环境工学部(一般学生型)的录取条件，我们需要考虑以下几个因素：
+1. **科目成绩**：根据您提供的信息，您的综合成绩为3.92。这需要与该专业的具体录取标准进行比较。
+2. **最低录取标准**：
+   - 根据表格中的信息，“化工环境工学部(一般学生型)”的最低录取标准是“国语 + 数学 + 英语等级分数 + 研究领域标准分数”。 
+   - 具体来说，该专业的科目权重为：国语（104）+ 数学（108）+ 英语等级分 + 研究领域标准分。
+3. **英语等级分**：
+   - 您需要查看您的英语等级对应的分数。根据提供的表格，“9等”对应75分。
+4. **研究领域标准分**：
+   - 这部分取决于您在研究领域的表现，通常会考虑国语、数学、英语之外的其他科目。
+假设您的成绩如下（仅作示例）：
+- 国语：104
+- 数学：108
+- 英语等级：9等 (75分)
+- 研究领域标准分：假设为60
+那么总分为：104 + 108 + 75 + 60 = 347 分。
+如果这个分数满足该专业的最低录取线，那么理论上是有可能被录取的。但具体还需要参考东义大学官方发布的详细录取分数线和标准。
+建议您：
+- 查看东义大学官网或招生简章中化工环境工学部的具体录取要求。
+- 确认您的成绩是否达到了该专业的最低录取标准。
+- 如果有疑问，可以直接联系学校招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 수능 성적 4.25가 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 최종 합격 여부는 수능 점수 외에도 여러 요소가 종합적으로 평가된다는 점에서 일부 정보가 추가되었지만, 전반적으로 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 전형 요소에 대한 설명이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 수능 성적에 대한 판단만을 제공하고 있으므로, 추가된 정보가 원본과의 일관성을 약간 해치는 요소로 작용합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 수능 성적과 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나, 원본 텍스트와의 연결이 약간 느슨해질 수 있는 부분이 있어 완벽한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 일반적으로 정확합니다. 그러나, 최종 합격 여부에 대한 언급이 원본 텍스트의 정보와는 다소 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본의 맥락을 약간 벗어날 수 있는 점이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6610935706062849</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학과에 지원하시려면, 수능 일반학생전형을 통해 지원할 수 있습니다. 하지만 수능 점수와 학교생활기록부 등 전형 요소들을 종합적으로 평가받아야 합니다.
+화학환경공학과는 공학 위주로 전형이 이루어지므로, 수능 성적 4.25는 충분히 고려될 수 있습니다. 하지만 최종 합격 여부는 수능 점수 외에도 다음과 같은 요소들이 종합적으로 평가됩니다:
+1. **수능 성적**: 국어, 수학(미적분 또는 기하), 영어 등급을 포함한 총점이 중요합니다.
+2. **학생부 교과성적**: 고교 3년 동안의 학업 성적입니다.
+3. **면접 및 실기 평가** (필요시): 일부 전형에서는 면접이나 실기 평가도 이루어질 수 있습니다.
+따라서, 수능 점수만으로는 확정적으로 합격할 수 없다고 할 수 있습니다. 최종 합격 여부는 2024년 1월 중순부터 발표되는 전형 일정에 따라 확인해야 합니다.
+추가적으로, 동의대학교의 공식 홈페이지 (http://ipsi.deu.ac.kr)를 통해 가장 최신 정보와 자세한 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 바탕으로 합격 가능성을 논의하고 있으며, 제공된 데이터와 일치하는 내용을 포함하고 있습니다. 그러나 "4.2라는 점수만으로는 확실한 답변을 드리기 어렵습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 영화학과의 성적 분포와 관련된 내용을 잘 반영하고 있습니다. 다만, 경쟁률에 대한 언급은 원본 텍스트에 포함되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 제공된 데이터에 기반한 합리적인 추론을 포함하고 있습니다. 그러나 "확실하지 않습니다"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.584521992420129</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 추측해볼 수 있습니다.
+1. **영화학과의 경쟁률**: 영화학과의 경쟁률이 어느 정도인지 확인해야 합니다. 경쟁률이 높다면 4.2라는 점수로는 낮은 확률일 것입니다.
+2. **최초합격자와 최종등록자의 성적 분포**: 위에서 제공된 표를 보면, 영화학과의 경우 평균점수가 3.66~4.53 사이입니다. 이 중 일부 모집단위는 4.0 이상이므로 4.2는 상당히 높은 점수입니다.
+3. **가산점**: 가산점을 받았다면 실제 성적이 더 높아질 수 있습니다.
+4. **면접 등 추가 평가 요소**: 영화학과는 종종 면접이나 portfolios 등의 추가 평가를 통해 합격자를 선발하기도 합니다. 따라서, 단순히 점수만으로 판단하기보다 총합격 절차를 고려해야 합니다.
+5. **최근 동향**: 최근 몇 년간의 입학성적을 참고하면 더 정확한 예측이 가능합니다.
+따라서, 4.2라는 점수로는 합격 가능성은 있지만 확실하지 않습니다. 최종 결정은 입학관리위원회에서 이루어지므로, 지원자의 총 평가를 고려하여 최종적으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있습니다. 그러나 원본 텍스트에 포함되지 않은 세부사항(블라인드 면접 방식, 개인 신상 정보 노출 금지 등)이 추가되어 있어 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 따르지만, 추가된 정보가 원본과 일치하지 않는 부분이 있어 일관성이 떨어집니다. 특히, 원본 텍스트에 없는 세부사항이 포함되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 잘 전달하고 있습니다. 모든 내용이 면접 절차와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 단계별로 설명하고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 저하되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6264030388906249</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실 (Arrival at Waiting Room)
+2. 신분 확인 (Identification Check) 
+3. 고사장 앞 이동 (Move to Examination Room)
+4. 고사장 입실 (Enter Examination Room)
+5. 지원동기 및 학업계획 발표 (Presentation on Motivation and Academic Plan)
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 (Discussion on Academic Abilities and Major Suitability)
+7. 기타사항 확인 (Verification of Other Matters) - 서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부 검증
+8. 퇴실 (Exit)
+이 절차는 모든 지원자에게 동일하게 적용되며, 블라인드 면접 방식으로 진행됩니다. 개인 신상 정보(수험번호, 성명, 출신고교, 부모직업 등) 노출을 금지하고 교복 착용도 금지되어 있습니다.
+번역 내용은 제공된 데이터의 "나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법" 표에서 요약한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>